--- a/database/industries/felezat/faira/product/monthly.xlsx
+++ b/database/industries/felezat/faira/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF68C77-2E47-459E-BEA2-E255C6675AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>شمش بیلت</t>
   </si>
   <si>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +449,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -460,7 +461,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -507,6 +508,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -542,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1374,154 +1409,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="F11" s="11">
-        <v>777</v>
+        <v>394</v>
       </c>
       <c r="G11" s="11">
-        <v>437</v>
+        <v>862</v>
       </c>
       <c r="H11" s="11">
-        <v>394</v>
+        <v>2414</v>
       </c>
       <c r="I11" s="11">
-        <v>862</v>
+        <v>2493</v>
       </c>
       <c r="J11" s="11">
-        <v>2414</v>
+        <v>2158</v>
       </c>
       <c r="K11" s="11">
-        <v>2493</v>
+        <v>956</v>
       </c>
       <c r="L11" s="11">
-        <v>2158</v>
+        <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O11" s="11">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="P11" s="11">
+        <v>684</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>623</v>
+      </c>
+      <c r="R11" s="11">
+        <v>619</v>
+      </c>
+      <c r="S11" s="11">
+        <v>2441</v>
+      </c>
+      <c r="T11" s="11">
+        <v>2712</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2982</v>
+      </c>
+      <c r="V11" s="11">
+        <v>2490</v>
+      </c>
+      <c r="W11" s="11">
+        <v>1160</v>
+      </c>
+      <c r="X11" s="11">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="11">
         <v>80</v>
       </c>
-      <c r="Q11" s="11">
-        <v>601</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="Z11" s="11">
+        <v>500</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>300</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>634</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>120</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>600</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>647</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>563</v>
+      </c>
+      <c r="AG11" s="11">
         <v>684</v>
       </c>
-      <c r="S11" s="11">
-        <v>623</v>
-      </c>
-      <c r="T11" s="11">
-        <v>619</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2441</v>
-      </c>
-      <c r="V11" s="11">
-        <v>2712</v>
-      </c>
-      <c r="W11" s="11">
-        <v>2982</v>
-      </c>
-      <c r="X11" s="11">
-        <v>2490</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>1160</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>61</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>80</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>500</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>300</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>634</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>120</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>600</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>647</v>
-      </c>
       <c r="AH11" s="11">
-        <v>563</v>
+        <v>307</v>
       </c>
       <c r="AI11" s="11">
-        <v>684</v>
+        <v>843</v>
       </c>
       <c r="AJ11" s="11">
-        <v>307</v>
+        <v>2314</v>
       </c>
       <c r="AK11" s="11">
-        <v>843</v>
+        <v>2277</v>
       </c>
       <c r="AL11" s="11">
-        <v>2314</v>
+        <v>1120</v>
       </c>
       <c r="AM11" s="11">
-        <v>2277</v>
+        <v>153</v>
       </c>
       <c r="AN11" s="11">
-        <v>1120</v>
+        <v>879</v>
       </c>
       <c r="AO11" s="11">
-        <v>153</v>
+        <v>1645</v>
       </c>
       <c r="AP11" s="11">
-        <v>879</v>
+        <v>1825</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1645</v>
+        <v>748</v>
       </c>
       <c r="AR11" s="11">
-        <v>9105</v>
+        <v>2502</v>
       </c>
       <c r="AS11" s="11">
-        <v>748</v>
+        <v>401</v>
       </c>
       <c r="AT11" s="11">
-        <v>2502</v>
+        <v>2416</v>
       </c>
       <c r="AU11" s="11">
-        <v>401</v>
+        <v>3706</v>
       </c>
       <c r="AV11" s="11">
-        <v>2416</v>
+        <v>1910</v>
       </c>
       <c r="AW11" s="11">
-        <v>3706</v>
+        <v>2039</v>
       </c>
       <c r="AX11" s="11">
-        <v>1910</v>
+        <v>1282</v>
       </c>
       <c r="AY11" s="11">
-        <v>2039</v>
+        <v>1202</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
-        <v>1202</v>
+        <v>1259</v>
       </c>
       <c r="BB11" s="11">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1533,154 +1568,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>11586</v>
+        <v>10348</v>
       </c>
       <c r="F12" s="13">
-        <v>10846</v>
+        <v>8680</v>
       </c>
       <c r="G12" s="13">
-        <v>10348</v>
+        <v>7328</v>
       </c>
       <c r="H12" s="13">
-        <v>8680</v>
+        <v>9882</v>
       </c>
       <c r="I12" s="13">
-        <v>7328</v>
+        <v>11904</v>
       </c>
       <c r="J12" s="13">
-        <v>9882</v>
+        <v>11861</v>
       </c>
       <c r="K12" s="13">
-        <v>11904</v>
+        <v>9127</v>
       </c>
       <c r="L12" s="13">
-        <v>11861</v>
+        <v>10759</v>
       </c>
       <c r="M12" s="13">
-        <v>9127</v>
+        <v>11000</v>
       </c>
       <c r="N12" s="13">
-        <v>10759</v>
+        <v>11595</v>
       </c>
       <c r="O12" s="13">
-        <v>11000</v>
+        <v>12018</v>
       </c>
       <c r="P12" s="13">
-        <v>11595</v>
+        <v>11825</v>
       </c>
       <c r="Q12" s="13">
-        <v>12018</v>
+        <v>10980</v>
       </c>
       <c r="R12" s="13">
-        <v>11825</v>
+        <v>13153</v>
       </c>
       <c r="S12" s="13">
-        <v>10980</v>
+        <v>11356</v>
       </c>
       <c r="T12" s="13">
-        <v>13153</v>
+        <v>12883</v>
       </c>
       <c r="U12" s="13">
-        <v>11356</v>
+        <v>11907</v>
       </c>
       <c r="V12" s="13">
-        <v>12883</v>
+        <v>12131</v>
       </c>
       <c r="W12" s="13">
-        <v>11907</v>
+        <v>6200</v>
       </c>
       <c r="X12" s="13">
-        <v>12131</v>
+        <v>3520</v>
       </c>
       <c r="Y12" s="13">
-        <v>6200</v>
+        <v>7858</v>
       </c>
       <c r="Z12" s="13">
-        <v>3520</v>
+        <v>9522</v>
       </c>
       <c r="AA12" s="13">
-        <v>7858</v>
+        <v>10202</v>
       </c>
       <c r="AB12" s="13">
-        <v>9522</v>
+        <v>8126</v>
       </c>
       <c r="AC12" s="13">
-        <v>10202</v>
+        <v>4633</v>
       </c>
       <c r="AD12" s="13">
-        <v>8126</v>
+        <v>4708</v>
       </c>
       <c r="AE12" s="13">
-        <v>4633</v>
+        <v>11659</v>
       </c>
       <c r="AF12" s="13">
-        <v>4708</v>
+        <v>9065</v>
       </c>
       <c r="AG12" s="13">
-        <v>11659</v>
+        <v>394</v>
       </c>
       <c r="AH12" s="13">
-        <v>9065</v>
+        <v>6659</v>
       </c>
       <c r="AI12" s="13">
-        <v>394</v>
+        <v>10783</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6659</v>
+        <v>9172</v>
       </c>
       <c r="AK12" s="13">
-        <v>10783</v>
+        <v>10269</v>
       </c>
       <c r="AL12" s="13">
-        <v>9172</v>
+        <v>8441</v>
       </c>
       <c r="AM12" s="13">
-        <v>10269</v>
+        <v>9192</v>
       </c>
       <c r="AN12" s="13">
-        <v>8441</v>
+        <v>11599</v>
       </c>
       <c r="AO12" s="13">
-        <v>9192</v>
+        <v>12616</v>
       </c>
       <c r="AP12" s="13">
-        <v>11599</v>
+        <v>12986</v>
       </c>
       <c r="AQ12" s="13">
-        <v>12616</v>
+        <v>11316</v>
       </c>
       <c r="AR12" s="13">
-        <v>55077</v>
+        <v>12856</v>
       </c>
       <c r="AS12" s="13">
-        <v>11316</v>
+        <v>14050</v>
       </c>
       <c r="AT12" s="13">
-        <v>12856</v>
+        <v>11444</v>
       </c>
       <c r="AU12" s="13">
-        <v>14050</v>
+        <v>11046</v>
       </c>
       <c r="AV12" s="13">
-        <v>11444</v>
+        <v>12863</v>
       </c>
       <c r="AW12" s="13">
-        <v>11046</v>
+        <v>12161</v>
       </c>
       <c r="AX12" s="13">
-        <v>12863</v>
+        <v>13298</v>
       </c>
       <c r="AY12" s="13">
-        <v>12161</v>
+        <v>13525</v>
       </c>
       <c r="AZ12" s="13">
-        <v>13298</v>
+        <v>14965</v>
       </c>
       <c r="BA12" s="13">
-        <v>13525</v>
+        <v>14256</v>
       </c>
       <c r="BB12" s="13">
-        <v>14965</v>
+        <v>14267</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1692,76 +1727,76 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="F13" s="11">
-        <v>719</v>
+        <v>477</v>
       </c>
       <c r="G13" s="11">
-        <v>588</v>
+        <v>294</v>
       </c>
       <c r="H13" s="11">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="L13" s="11">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="M13" s="11">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
       </c>
       <c r="Q13" s="11">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="R13" s="11">
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <v>850</v>
+        <v>1396</v>
       </c>
       <c r="T13" s="11">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="U13" s="11">
-        <v>1396</v>
+        <v>591</v>
       </c>
       <c r="V13" s="11">
-        <v>1082</v>
+        <v>1261</v>
       </c>
       <c r="W13" s="11">
-        <v>591</v>
+        <v>2041</v>
       </c>
       <c r="X13" s="11">
-        <v>1261</v>
+        <v>3028</v>
       </c>
       <c r="Y13" s="11">
-        <v>2041</v>
+        <v>2096</v>
       </c>
       <c r="Z13" s="11">
-        <v>3028</v>
+        <v>497</v>
       </c>
       <c r="AA13" s="11">
-        <v>2096</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="11">
         <v>0</v>
@@ -1770,25 +1805,25 @@
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="AG13" s="11">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AJ13" s="11">
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="11">
         <v>0</v>
@@ -1809,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AS13" s="11">
         <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="AV13" s="11">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="11">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
         <v>0</v>
@@ -1839,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1851,98 +1886,98 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>2067</v>
+        <v>2449</v>
       </c>
       <c r="F14" s="13">
-        <v>1464</v>
+        <v>3593</v>
       </c>
       <c r="G14" s="13">
-        <v>2449</v>
+        <v>3629</v>
       </c>
       <c r="H14" s="13">
-        <v>3593</v>
+        <v>2975</v>
       </c>
       <c r="I14" s="13">
-        <v>3629</v>
+        <v>1417</v>
       </c>
       <c r="J14" s="13">
-        <v>2975</v>
+        <v>954</v>
       </c>
       <c r="K14" s="13">
-        <v>1417</v>
+        <v>4408</v>
       </c>
       <c r="L14" s="13">
-        <v>954</v>
+        <v>3482</v>
       </c>
       <c r="M14" s="13">
-        <v>4408</v>
+        <v>2408</v>
       </c>
       <c r="N14" s="13">
-        <v>3482</v>
+        <v>2453</v>
       </c>
       <c r="O14" s="13">
-        <v>2408</v>
+        <v>1261</v>
       </c>
       <c r="P14" s="13">
-        <v>2453</v>
+        <v>1980</v>
       </c>
       <c r="Q14" s="13">
-        <v>1261</v>
+        <v>1843</v>
       </c>
       <c r="R14" s="13">
-        <v>1980</v>
+        <v>731</v>
       </c>
       <c r="S14" s="13">
-        <v>1843</v>
-      </c>
-      <c r="T14" s="13">
-        <v>731</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>60</v>
+      <c r="W14" s="13">
+        <v>6994</v>
+      </c>
+      <c r="X14" s="13">
+        <v>9225</v>
       </c>
       <c r="Y14" s="13">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z14" s="13">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA14" s="13">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB14" s="13">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC14" s="13">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD14" s="13">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE14" s="13">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF14" s="13">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG14" s="13">
-        <v>3607</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>5463</v>
-      </c>
-      <c r="AI14" s="13">
         <v>13807</v>
       </c>
+      <c r="AH14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ14" s="13" t="s">
         <v>60</v>
       </c>
@@ -1955,17 +1990,17 @@
       <c r="AM14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO14" s="13" t="s">
-        <v>60</v>
+      <c r="AN14" s="13">
+        <v>1566</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>282</v>
       </c>
       <c r="AP14" s="13">
-        <v>1566</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>282</v>
+        <v>469</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>60</v>
@@ -2108,23 +2143,23 @@
       <c r="AK15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>60</v>
+      <c r="AL15" s="11">
+        <v>1571</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>1435</v>
       </c>
       <c r="AN15" s="11">
-        <v>1571</v>
+        <v>770</v>
       </c>
       <c r="AO15" s="11">
-        <v>1435</v>
+        <v>289</v>
       </c>
       <c r="AP15" s="11">
-        <v>770</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>289</v>
+        <v>22</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>60</v>
@@ -2277,11 +2312,11 @@
       <c r="V17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>60</v>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
       </c>
       <c r="Y17" s="17">
         <v>0</v>
@@ -2381,154 +2416,154 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19">
-        <v>14268</v>
+        <v>13822</v>
       </c>
       <c r="F18" s="19">
-        <v>13806</v>
+        <v>13144</v>
       </c>
       <c r="G18" s="19">
-        <v>13822</v>
+        <v>12113</v>
       </c>
       <c r="H18" s="19">
-        <v>13144</v>
+        <v>15271</v>
       </c>
       <c r="I18" s="19">
-        <v>12113</v>
+        <v>15814</v>
       </c>
       <c r="J18" s="19">
-        <v>15271</v>
+        <v>15446</v>
       </c>
       <c r="K18" s="19">
-        <v>15814</v>
+        <v>15142</v>
       </c>
       <c r="L18" s="19">
-        <v>15446</v>
+        <v>14532</v>
       </c>
       <c r="M18" s="19">
-        <v>15142</v>
+        <v>13408</v>
       </c>
       <c r="N18" s="19">
-        <v>14532</v>
+        <v>14128</v>
       </c>
       <c r="O18" s="19">
-        <v>13408</v>
+        <v>14709</v>
       </c>
       <c r="P18" s="19">
-        <v>14128</v>
+        <v>14489</v>
       </c>
       <c r="Q18" s="19">
-        <v>14709</v>
+        <v>14296</v>
       </c>
       <c r="R18" s="19">
-        <v>14489</v>
+        <v>14503</v>
       </c>
       <c r="S18" s="19">
-        <v>14296</v>
+        <v>15193</v>
       </c>
       <c r="T18" s="19">
-        <v>14503</v>
+        <v>16677</v>
       </c>
       <c r="U18" s="19">
-        <v>15193</v>
+        <v>15480</v>
       </c>
       <c r="V18" s="19">
-        <v>16677</v>
+        <v>15882</v>
       </c>
       <c r="W18" s="19">
-        <v>15480</v>
+        <v>16395</v>
       </c>
       <c r="X18" s="19">
-        <v>15882</v>
+        <v>15834</v>
       </c>
       <c r="Y18" s="19">
-        <v>16395</v>
+        <v>14615</v>
       </c>
       <c r="Z18" s="19">
-        <v>15834</v>
+        <v>14165</v>
       </c>
       <c r="AA18" s="19">
-        <v>14615</v>
+        <v>16793</v>
       </c>
       <c r="AB18" s="19">
-        <v>14165</v>
+        <v>14817</v>
       </c>
       <c r="AC18" s="19">
-        <v>16793</v>
+        <v>14658</v>
       </c>
       <c r="AD18" s="19">
-        <v>14817</v>
+        <v>15177</v>
       </c>
       <c r="AE18" s="19">
-        <v>14658</v>
+        <v>16371</v>
       </c>
       <c r="AF18" s="19">
-        <v>15177</v>
+        <v>15298</v>
       </c>
       <c r="AG18" s="19">
-        <v>16371</v>
+        <v>14885</v>
       </c>
       <c r="AH18" s="19">
-        <v>15298</v>
+        <v>6966</v>
       </c>
       <c r="AI18" s="19">
-        <v>14885</v>
+        <v>11727</v>
       </c>
       <c r="AJ18" s="19">
-        <v>6966</v>
+        <v>11486</v>
       </c>
       <c r="AK18" s="19">
-        <v>11727</v>
+        <v>12546</v>
       </c>
       <c r="AL18" s="19">
-        <v>11486</v>
+        <v>11132</v>
       </c>
       <c r="AM18" s="19">
-        <v>12546</v>
+        <v>10780</v>
       </c>
       <c r="AN18" s="19">
-        <v>11132</v>
+        <v>14814</v>
       </c>
       <c r="AO18" s="19">
-        <v>10780</v>
+        <v>14832</v>
       </c>
       <c r="AP18" s="19">
-        <v>14814</v>
+        <v>15302</v>
       </c>
       <c r="AQ18" s="19">
-        <v>14832</v>
+        <v>12064</v>
       </c>
       <c r="AR18" s="19">
-        <v>64182</v>
+        <v>16045</v>
       </c>
       <c r="AS18" s="19">
-        <v>12064</v>
+        <v>14451</v>
       </c>
       <c r="AT18" s="19">
-        <v>16045</v>
+        <v>14552</v>
       </c>
       <c r="AU18" s="19">
-        <v>14451</v>
+        <v>15672</v>
       </c>
       <c r="AV18" s="19">
-        <v>14552</v>
+        <v>14773</v>
       </c>
       <c r="AW18" s="19">
-        <v>15672</v>
+        <v>14200</v>
       </c>
       <c r="AX18" s="19">
-        <v>14773</v>
+        <v>14580</v>
       </c>
       <c r="AY18" s="19">
-        <v>14200</v>
+        <v>14727</v>
       </c>
       <c r="AZ18" s="19">
-        <v>14580</v>
+        <v>14965</v>
       </c>
       <c r="BA18" s="19">
-        <v>14727</v>
+        <v>15515</v>
       </c>
       <c r="BB18" s="19">
-        <v>14965</v>
+        <v>15491</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -2974,154 +3009,154 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>603</v>
+        <v>398</v>
       </c>
       <c r="F25" s="11">
-        <v>995</v>
+        <v>566</v>
       </c>
       <c r="G25" s="11">
-        <v>398</v>
+        <v>1422</v>
       </c>
       <c r="H25" s="11">
-        <v>566</v>
+        <v>892</v>
       </c>
       <c r="I25" s="11">
-        <v>1422</v>
+        <v>1015</v>
       </c>
       <c r="J25" s="11">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="K25" s="11">
-        <v>1015</v>
+        <v>356</v>
       </c>
       <c r="L25" s="11">
-        <v>876</v>
+        <v>318</v>
       </c>
       <c r="M25" s="11">
-        <v>356</v>
+        <v>972</v>
       </c>
       <c r="N25" s="11">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="O25" s="11">
-        <v>972</v>
+        <v>752</v>
       </c>
       <c r="P25" s="11">
-        <v>375</v>
+        <v>1442</v>
       </c>
       <c r="Q25" s="11">
-        <v>752</v>
+        <v>1217</v>
       </c>
       <c r="R25" s="11">
-        <v>1442</v>
+        <v>1075</v>
       </c>
       <c r="S25" s="11">
-        <v>1217</v>
+        <v>1417</v>
       </c>
       <c r="T25" s="11">
-        <v>1075</v>
+        <v>199</v>
       </c>
       <c r="U25" s="11">
-        <v>1417</v>
+        <v>1973</v>
       </c>
       <c r="V25" s="11">
-        <v>199</v>
+        <v>1051</v>
       </c>
       <c r="W25" s="11">
-        <v>1973</v>
+        <v>1385</v>
       </c>
       <c r="X25" s="11">
-        <v>1051</v>
+        <v>1281</v>
       </c>
       <c r="Y25" s="11">
-        <v>1385</v>
+        <v>1249</v>
       </c>
       <c r="Z25" s="11">
-        <v>1281</v>
+        <v>1069</v>
       </c>
       <c r="AA25" s="11">
-        <v>1249</v>
+        <v>1038</v>
       </c>
       <c r="AB25" s="11">
-        <v>1069</v>
+        <v>549</v>
       </c>
       <c r="AC25" s="11">
-        <v>1038</v>
+        <v>99</v>
       </c>
       <c r="AD25" s="11">
-        <v>549</v>
+        <v>733</v>
       </c>
       <c r="AE25" s="11">
-        <v>99</v>
+        <v>783</v>
       </c>
       <c r="AF25" s="11">
-        <v>733</v>
+        <v>196</v>
       </c>
       <c r="AG25" s="11">
-        <v>783</v>
+        <v>632</v>
       </c>
       <c r="AH25" s="11">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="AI25" s="11">
-        <v>632</v>
+        <v>262</v>
       </c>
       <c r="AJ25" s="11">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="AK25" s="11">
-        <v>262</v>
+        <v>875</v>
       </c>
       <c r="AL25" s="11">
-        <v>370</v>
+        <v>758</v>
       </c>
       <c r="AM25" s="11">
-        <v>875</v>
+        <v>699</v>
       </c>
       <c r="AN25" s="11">
-        <v>758</v>
+        <v>1313</v>
       </c>
       <c r="AO25" s="11">
-        <v>699</v>
+        <v>941</v>
       </c>
       <c r="AP25" s="11">
-        <v>1313</v>
+        <v>320</v>
       </c>
       <c r="AQ25" s="11">
-        <v>941</v>
+        <v>3043</v>
       </c>
       <c r="AR25" s="11">
-        <v>7600</v>
+        <v>1232</v>
       </c>
       <c r="AS25" s="11">
-        <v>3043</v>
+        <v>641</v>
       </c>
       <c r="AT25" s="11">
-        <v>1232</v>
+        <v>1994</v>
       </c>
       <c r="AU25" s="11">
-        <v>641</v>
+        <v>4664</v>
       </c>
       <c r="AV25" s="11">
-        <v>1994</v>
+        <v>1845</v>
       </c>
       <c r="AW25" s="11">
-        <v>4664</v>
+        <v>1880</v>
       </c>
       <c r="AX25" s="11">
-        <v>1845</v>
+        <v>1311</v>
       </c>
       <c r="AY25" s="11">
-        <v>1880</v>
+        <v>1514</v>
       </c>
       <c r="AZ25" s="11">
-        <v>1311</v>
+        <v>371</v>
       </c>
       <c r="BA25" s="11">
-        <v>1514</v>
+        <v>1286</v>
       </c>
       <c r="BB25" s="11">
-        <v>371</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
@@ -3133,154 +3168,154 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>7043</v>
+        <v>10890</v>
       </c>
       <c r="F26" s="13">
-        <v>6713</v>
+        <v>13222</v>
       </c>
       <c r="G26" s="13">
-        <v>10890</v>
+        <v>13984</v>
       </c>
       <c r="H26" s="13">
-        <v>13222</v>
+        <v>2520</v>
       </c>
       <c r="I26" s="13">
-        <v>13984</v>
+        <v>11799</v>
       </c>
       <c r="J26" s="13">
-        <v>2520</v>
+        <v>10040</v>
       </c>
       <c r="K26" s="13">
-        <v>11799</v>
+        <v>6109</v>
       </c>
       <c r="L26" s="13">
-        <v>10040</v>
+        <v>11511</v>
       </c>
       <c r="M26" s="13">
-        <v>6109</v>
+        <v>10432</v>
       </c>
       <c r="N26" s="13">
-        <v>11511</v>
+        <v>15093</v>
       </c>
       <c r="O26" s="13">
-        <v>10432</v>
+        <v>9857</v>
       </c>
       <c r="P26" s="13">
-        <v>15093</v>
+        <v>18056</v>
       </c>
       <c r="Q26" s="13">
-        <v>9857</v>
+        <v>12843</v>
       </c>
       <c r="R26" s="13">
-        <v>18056</v>
+        <v>12482</v>
       </c>
       <c r="S26" s="13">
-        <v>12843</v>
+        <v>12608</v>
       </c>
       <c r="T26" s="13">
-        <v>12482</v>
+        <v>4029</v>
       </c>
       <c r="U26" s="13">
-        <v>12608</v>
+        <v>13109</v>
       </c>
       <c r="V26" s="13">
-        <v>4029</v>
+        <v>16041</v>
       </c>
       <c r="W26" s="13">
-        <v>13109</v>
+        <v>12498</v>
       </c>
       <c r="X26" s="13">
-        <v>16041</v>
+        <v>6096</v>
       </c>
       <c r="Y26" s="13">
-        <v>12498</v>
+        <v>7711</v>
       </c>
       <c r="Z26" s="13">
-        <v>6096</v>
+        <v>8231</v>
       </c>
       <c r="AA26" s="13">
-        <v>7711</v>
+        <v>2333</v>
       </c>
       <c r="AB26" s="13">
-        <v>8231</v>
+        <v>4789</v>
       </c>
       <c r="AC26" s="13">
-        <v>2333</v>
+        <v>6678</v>
       </c>
       <c r="AD26" s="13">
-        <v>4789</v>
+        <v>6364</v>
       </c>
       <c r="AE26" s="13">
-        <v>6678</v>
+        <v>6668</v>
       </c>
       <c r="AF26" s="13">
+        <v>3162</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>4598</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>9371</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>9399</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>8303</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>10291</v>
+      </c>
+      <c r="AL26" s="13">
         <v>6364</v>
       </c>
-      <c r="AG26" s="13">
-        <v>6668</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>3162</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>4598</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>9371</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>9399</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>8303</v>
-      </c>
       <c r="AM26" s="13">
-        <v>10291</v>
+        <v>10718</v>
       </c>
       <c r="AN26" s="13">
-        <v>6364</v>
+        <v>11222</v>
       </c>
       <c r="AO26" s="13">
-        <v>10718</v>
+        <v>11771</v>
       </c>
       <c r="AP26" s="13">
-        <v>11222</v>
+        <v>6449</v>
       </c>
       <c r="AQ26" s="13">
-        <v>11771</v>
+        <v>12909</v>
       </c>
       <c r="AR26" s="13">
-        <v>48540</v>
+        <v>5944</v>
       </c>
       <c r="AS26" s="13">
-        <v>12909</v>
+        <v>12795</v>
       </c>
       <c r="AT26" s="13">
-        <v>5944</v>
+        <v>24572</v>
       </c>
       <c r="AU26" s="13">
-        <v>12795</v>
+        <v>17574</v>
       </c>
       <c r="AV26" s="13">
-        <v>24572</v>
+        <v>14908</v>
       </c>
       <c r="AW26" s="13">
-        <v>17574</v>
+        <v>11549</v>
       </c>
       <c r="AX26" s="13">
-        <v>14908</v>
+        <v>15125</v>
       </c>
       <c r="AY26" s="13">
-        <v>11549</v>
+        <v>15690</v>
       </c>
       <c r="AZ26" s="13">
-        <v>15125</v>
+        <v>10249</v>
       </c>
       <c r="BA26" s="13">
-        <v>15690</v>
+        <v>9772</v>
       </c>
       <c r="BB26" s="13">
-        <v>10249</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -3292,154 +3327,154 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="F27" s="11">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G27" s="11">
+        <v>838</v>
+      </c>
+      <c r="H27" s="11">
+        <v>429</v>
+      </c>
+      <c r="I27" s="11">
+        <v>459</v>
+      </c>
+      <c r="J27" s="11">
+        <v>578</v>
+      </c>
+      <c r="K27" s="11">
+        <v>109</v>
+      </c>
+      <c r="L27" s="11">
+        <v>341</v>
+      </c>
+      <c r="M27" s="11">
+        <v>131</v>
+      </c>
+      <c r="N27" s="11">
+        <v>87</v>
+      </c>
+      <c r="O27" s="11">
         <v>50</v>
       </c>
-      <c r="H27" s="11">
-        <v>109</v>
-      </c>
-      <c r="I27" s="11">
-        <v>838</v>
-      </c>
-      <c r="J27" s="11">
-        <v>429</v>
-      </c>
-      <c r="K27" s="11">
-        <v>459</v>
-      </c>
-      <c r="L27" s="11">
-        <v>578</v>
-      </c>
-      <c r="M27" s="11">
-        <v>109</v>
-      </c>
-      <c r="N27" s="11">
-        <v>341</v>
-      </c>
-      <c r="O27" s="11">
-        <v>131</v>
-      </c>
       <c r="P27" s="11">
-        <v>87</v>
+        <v>680</v>
       </c>
       <c r="Q27" s="11">
+        <v>656</v>
+      </c>
+      <c r="R27" s="11">
+        <v>119</v>
+      </c>
+      <c r="S27" s="11">
+        <v>1631</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>1400</v>
+      </c>
+      <c r="V27" s="11">
+        <v>2468</v>
+      </c>
+      <c r="W27" s="11">
+        <v>3048</v>
+      </c>
+      <c r="X27" s="11">
+        <v>3042</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>843</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>123</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>1493</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>120</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>275</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>20</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>469</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>605</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>613</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>160</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>40</v>
+      </c>
+      <c r="AM27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="11">
+        <v>39</v>
+      </c>
+      <c r="AP27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="11">
+        <v>49</v>
+      </c>
+      <c r="AT27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="11">
         <v>50</v>
       </c>
-      <c r="R27" s="11">
-        <v>680</v>
-      </c>
-      <c r="S27" s="11">
-        <v>656</v>
-      </c>
-      <c r="T27" s="11">
-        <v>119</v>
-      </c>
-      <c r="U27" s="11">
-        <v>1631</v>
-      </c>
-      <c r="V27" s="11">
-        <v>0</v>
-      </c>
-      <c r="W27" s="11">
-        <v>1400</v>
-      </c>
-      <c r="X27" s="11">
-        <v>2468</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>3048</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>3042</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>843</v>
-      </c>
-      <c r="AB27" s="11">
-        <v>123</v>
-      </c>
-      <c r="AC27" s="11">
-        <v>1493</v>
-      </c>
-      <c r="AD27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="11">
-        <v>120</v>
-      </c>
-      <c r="AG27" s="11">
-        <v>275</v>
-      </c>
-      <c r="AH27" s="11">
-        <v>20</v>
-      </c>
-      <c r="AI27" s="11">
-        <v>469</v>
-      </c>
-      <c r="AJ27" s="11">
-        <v>605</v>
-      </c>
-      <c r="AK27" s="11">
-        <v>613</v>
-      </c>
-      <c r="AL27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="11">
-        <v>160</v>
-      </c>
-      <c r="AN27" s="11">
-        <v>40</v>
-      </c>
-      <c r="AO27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="11">
-        <v>49</v>
-      </c>
-      <c r="AV27" s="11">
-        <v>0</v>
-      </c>
       <c r="AW27" s="11">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="AX27" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="11">
-        <v>959</v>
+        <v>75</v>
       </c>
       <c r="AZ27" s="11">
         <v>0</v>
       </c>
       <c r="BA27" s="11">
-        <v>75</v>
+        <v>635</v>
       </c>
       <c r="BB27" s="11">
-        <v>0</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -3451,98 +3486,98 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>2067</v>
+        <v>2449</v>
       </c>
       <c r="F28" s="13">
-        <v>1464</v>
+        <v>3593</v>
       </c>
       <c r="G28" s="13">
-        <v>2449</v>
+        <v>3629</v>
       </c>
       <c r="H28" s="13">
-        <v>3593</v>
+        <v>2975</v>
       </c>
       <c r="I28" s="13">
-        <v>3629</v>
+        <v>1417</v>
       </c>
       <c r="J28" s="13">
-        <v>2975</v>
+        <v>954</v>
       </c>
       <c r="K28" s="13">
-        <v>1417</v>
+        <v>4408</v>
       </c>
       <c r="L28" s="13">
-        <v>954</v>
+        <v>3482</v>
       </c>
       <c r="M28" s="13">
-        <v>4408</v>
+        <v>2408</v>
       </c>
       <c r="N28" s="13">
-        <v>3482</v>
+        <v>2453</v>
       </c>
       <c r="O28" s="13">
-        <v>2408</v>
+        <v>1261</v>
       </c>
       <c r="P28" s="13">
-        <v>2453</v>
+        <v>1980</v>
       </c>
       <c r="Q28" s="13">
-        <v>1261</v>
+        <v>1843</v>
       </c>
       <c r="R28" s="13">
-        <v>1980</v>
+        <v>731</v>
       </c>
       <c r="S28" s="13">
-        <v>1843</v>
-      </c>
-      <c r="T28" s="13">
-        <v>731</v>
-      </c>
-      <c r="U28" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V28" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>60</v>
+      <c r="W28" s="13">
+        <v>6994</v>
+      </c>
+      <c r="X28" s="13">
+        <v>9225</v>
       </c>
       <c r="Y28" s="13">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z28" s="13">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA28" s="13">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB28" s="13">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC28" s="13">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD28" s="13">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE28" s="13">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF28" s="13">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG28" s="13">
-        <v>3607</v>
-      </c>
-      <c r="AH28" s="13">
-        <v>5463</v>
-      </c>
-      <c r="AI28" s="13">
         <v>13807</v>
       </c>
+      <c r="AH28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ28" s="13" t="s">
         <v>60</v>
       </c>
@@ -3555,17 +3590,17 @@
       <c r="AM28" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO28" s="13" t="s">
-        <v>60</v>
+      <c r="AN28" s="13">
+        <v>1566</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>282</v>
       </c>
       <c r="AP28" s="13">
-        <v>1566</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>282</v>
+        <v>469</v>
+      </c>
+      <c r="AQ28" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR28" s="13" t="s">
         <v>60</v>
@@ -3708,23 +3743,23 @@
       <c r="AK29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM29" s="11" t="s">
-        <v>60</v>
+      <c r="AL29" s="11">
+        <v>1571</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>1435</v>
       </c>
       <c r="AN29" s="11">
-        <v>1571</v>
+        <v>770</v>
       </c>
       <c r="AO29" s="11">
-        <v>1435</v>
+        <v>289</v>
       </c>
       <c r="AP29" s="11">
-        <v>770</v>
-      </c>
-      <c r="AQ29" s="11">
-        <v>289</v>
+        <v>22</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AR29" s="11" t="s">
         <v>60</v>
@@ -3877,11 +3912,11 @@
       <c r="V31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>60</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -4091,11 +4126,11 @@
       <c r="V33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>60</v>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
       </c>
       <c r="Y33" s="17">
         <v>0</v>
@@ -4195,154 +4230,154 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
-        <v>10100</v>
+        <v>13787</v>
       </c>
       <c r="F34" s="19">
-        <v>9218</v>
+        <v>17490</v>
       </c>
       <c r="G34" s="19">
-        <v>13787</v>
+        <v>19873</v>
       </c>
       <c r="H34" s="19">
-        <v>17490</v>
+        <v>6816</v>
       </c>
       <c r="I34" s="19">
-        <v>19873</v>
+        <v>14690</v>
       </c>
       <c r="J34" s="19">
-        <v>6816</v>
+        <v>12448</v>
       </c>
       <c r="K34" s="19">
-        <v>14690</v>
+        <v>10982</v>
       </c>
       <c r="L34" s="19">
-        <v>12448</v>
+        <v>15652</v>
       </c>
       <c r="M34" s="19">
-        <v>10982</v>
+        <v>13943</v>
       </c>
       <c r="N34" s="19">
-        <v>15652</v>
+        <v>18008</v>
       </c>
       <c r="O34" s="19">
-        <v>13943</v>
+        <v>11920</v>
       </c>
       <c r="P34" s="19">
-        <v>18008</v>
+        <v>22158</v>
       </c>
       <c r="Q34" s="19">
-        <v>11920</v>
+        <v>16559</v>
       </c>
       <c r="R34" s="19">
-        <v>22158</v>
+        <v>14407</v>
       </c>
       <c r="S34" s="19">
-        <v>16559</v>
+        <v>15656</v>
       </c>
       <c r="T34" s="19">
-        <v>14407</v>
+        <v>4228</v>
       </c>
       <c r="U34" s="19">
-        <v>15656</v>
+        <v>16482</v>
       </c>
       <c r="V34" s="19">
-        <v>4228</v>
+        <v>19560</v>
       </c>
       <c r="W34" s="19">
-        <v>16482</v>
+        <v>23925</v>
       </c>
       <c r="X34" s="19">
-        <v>19560</v>
+        <v>19644</v>
       </c>
       <c r="Y34" s="19">
-        <v>23925</v>
+        <v>14384</v>
       </c>
       <c r="Z34" s="19">
-        <v>19644</v>
+        <v>13069</v>
       </c>
       <c r="AA34" s="19">
-        <v>14384</v>
+        <v>11155</v>
       </c>
       <c r="AB34" s="19">
-        <v>13069</v>
+        <v>11395</v>
       </c>
       <c r="AC34" s="19">
-        <v>11155</v>
+        <v>16682</v>
       </c>
       <c r="AD34" s="19">
-        <v>11395</v>
+        <v>17086</v>
       </c>
       <c r="AE34" s="19">
-        <v>16682</v>
+        <v>11333</v>
       </c>
       <c r="AF34" s="19">
-        <v>17086</v>
+        <v>8841</v>
       </c>
       <c r="AG34" s="19">
-        <v>11333</v>
+        <v>19506</v>
       </c>
       <c r="AH34" s="19">
-        <v>8841</v>
+        <v>10257</v>
       </c>
       <c r="AI34" s="19">
-        <v>19506</v>
+        <v>10274</v>
       </c>
       <c r="AJ34" s="19">
-        <v>10257</v>
+        <v>8673</v>
       </c>
       <c r="AK34" s="19">
-        <v>10274</v>
+        <v>11326</v>
       </c>
       <c r="AL34" s="19">
-        <v>8673</v>
+        <v>8733</v>
       </c>
       <c r="AM34" s="19">
-        <v>11326</v>
+        <v>12852</v>
       </c>
       <c r="AN34" s="19">
-        <v>8733</v>
+        <v>14871</v>
       </c>
       <c r="AO34" s="19">
-        <v>12852</v>
+        <v>13322</v>
       </c>
       <c r="AP34" s="19">
-        <v>14871</v>
+        <v>7260</v>
       </c>
       <c r="AQ34" s="19">
-        <v>13322</v>
+        <v>15952</v>
       </c>
       <c r="AR34" s="19">
-        <v>56140</v>
+        <v>7176</v>
       </c>
       <c r="AS34" s="19">
-        <v>15952</v>
+        <v>13485</v>
       </c>
       <c r="AT34" s="19">
-        <v>7176</v>
+        <v>26566</v>
       </c>
       <c r="AU34" s="19">
-        <v>13485</v>
+        <v>22238</v>
       </c>
       <c r="AV34" s="19">
-        <v>26566</v>
+        <v>16803</v>
       </c>
       <c r="AW34" s="19">
-        <v>22238</v>
+        <v>14388</v>
       </c>
       <c r="AX34" s="19">
-        <v>16803</v>
+        <v>16436</v>
       </c>
       <c r="AY34" s="19">
-        <v>14388</v>
+        <v>17279</v>
       </c>
       <c r="AZ34" s="19">
-        <v>16436</v>
+        <v>10620</v>
       </c>
       <c r="BA34" s="19">
-        <v>17279</v>
+        <v>11693</v>
       </c>
       <c r="BB34" s="19">
-        <v>10620</v>
+        <v>12936</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4788,154 +4823,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>146892</v>
+        <v>83965</v>
       </c>
       <c r="F41" s="11">
-        <v>235664</v>
+        <v>115938</v>
       </c>
       <c r="G41" s="11">
-        <v>83965</v>
+        <v>336733</v>
       </c>
       <c r="H41" s="11">
-        <v>115938</v>
+        <v>223137</v>
       </c>
       <c r="I41" s="11">
-        <v>336733</v>
+        <v>238446</v>
       </c>
       <c r="J41" s="11">
-        <v>223137</v>
+        <v>219947</v>
       </c>
       <c r="K41" s="11">
-        <v>238446</v>
+        <v>87756</v>
       </c>
       <c r="L41" s="11">
-        <v>219947</v>
+        <v>76649</v>
       </c>
       <c r="M41" s="11">
-        <v>87756</v>
+        <v>225230</v>
       </c>
       <c r="N41" s="11">
-        <v>76649</v>
+        <v>83806</v>
       </c>
       <c r="O41" s="11">
-        <v>225230</v>
+        <v>168155</v>
       </c>
       <c r="P41" s="11">
-        <v>83806</v>
+        <v>327871</v>
       </c>
       <c r="Q41" s="11">
-        <v>168155</v>
+        <v>286380</v>
       </c>
       <c r="R41" s="11">
-        <v>327871</v>
+        <v>264773</v>
       </c>
       <c r="S41" s="11">
-        <v>286380</v>
+        <v>357833</v>
       </c>
       <c r="T41" s="11">
-        <v>264773</v>
+        <v>50952</v>
       </c>
       <c r="U41" s="11">
-        <v>357833</v>
+        <v>487628</v>
       </c>
       <c r="V41" s="11">
-        <v>50952</v>
+        <v>269758</v>
       </c>
       <c r="W41" s="11">
-        <v>487628</v>
+        <v>423171</v>
       </c>
       <c r="X41" s="11">
-        <v>269758</v>
+        <v>485814</v>
       </c>
       <c r="Y41" s="11">
-        <v>423171</v>
+        <v>536937</v>
       </c>
       <c r="Z41" s="11">
-        <v>485814</v>
+        <v>459009</v>
       </c>
       <c r="AA41" s="11">
-        <v>536937</v>
+        <v>495956</v>
       </c>
       <c r="AB41" s="11">
-        <v>459009</v>
+        <v>245150</v>
       </c>
       <c r="AC41" s="11">
-        <v>495956</v>
+        <v>53935</v>
       </c>
       <c r="AD41" s="11">
-        <v>245150</v>
+        <v>379731</v>
       </c>
       <c r="AE41" s="11">
-        <v>53935</v>
+        <v>419370</v>
       </c>
       <c r="AF41" s="11">
-        <v>379731</v>
+        <v>110655</v>
       </c>
       <c r="AG41" s="11">
-        <v>419370</v>
+        <v>357055</v>
       </c>
       <c r="AH41" s="11">
-        <v>110655</v>
+        <v>155628</v>
       </c>
       <c r="AI41" s="11">
-        <v>357055</v>
+        <v>145997</v>
       </c>
       <c r="AJ41" s="11">
-        <v>155628</v>
+        <v>210180</v>
       </c>
       <c r="AK41" s="11">
-        <v>145997</v>
+        <v>583414</v>
       </c>
       <c r="AL41" s="11">
-        <v>210180</v>
+        <v>603050</v>
       </c>
       <c r="AM41" s="11">
-        <v>583414</v>
+        <v>517985</v>
       </c>
       <c r="AN41" s="11">
-        <v>603050</v>
+        <v>923190</v>
       </c>
       <c r="AO41" s="11">
-        <v>517985</v>
+        <v>746062</v>
       </c>
       <c r="AP41" s="11">
-        <v>923190</v>
+        <v>266299</v>
       </c>
       <c r="AQ41" s="11">
-        <v>746062</v>
+        <v>2804280</v>
       </c>
       <c r="AR41" s="11">
-        <v>5206825</v>
+        <v>1145424</v>
       </c>
       <c r="AS41" s="11">
-        <v>2804280</v>
+        <v>543183</v>
       </c>
       <c r="AT41" s="11">
-        <v>1145424</v>
+        <v>1598536</v>
       </c>
       <c r="AU41" s="11">
-        <v>594401</v>
+        <v>3737515</v>
       </c>
       <c r="AV41" s="11">
-        <v>1598536</v>
+        <v>1414792</v>
       </c>
       <c r="AW41" s="11">
-        <v>3737515</v>
+        <v>1432206</v>
       </c>
       <c r="AX41" s="11">
-        <v>1414792</v>
+        <v>969138</v>
       </c>
       <c r="AY41" s="11">
-        <v>1432206</v>
+        <v>1147077</v>
       </c>
       <c r="AZ41" s="11">
-        <v>969138</v>
+        <v>322401</v>
       </c>
       <c r="BA41" s="11">
-        <v>1147077</v>
+        <v>1288003</v>
       </c>
       <c r="BB41" s="11">
-        <v>322401</v>
+        <v>1544616</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -4947,154 +4982,154 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>1654707</v>
+        <v>2126111</v>
       </c>
       <c r="F42" s="13">
-        <v>1577242</v>
+        <v>2561256</v>
       </c>
       <c r="G42" s="13">
-        <v>2126111</v>
+        <v>3121576</v>
       </c>
       <c r="H42" s="13">
-        <v>2561256</v>
+        <v>596458</v>
       </c>
       <c r="I42" s="13">
-        <v>3121576</v>
+        <v>2823781</v>
       </c>
       <c r="J42" s="13">
-        <v>596458</v>
+        <v>2392899</v>
       </c>
       <c r="K42" s="13">
-        <v>2823781</v>
+        <v>1401029</v>
       </c>
       <c r="L42" s="13">
-        <v>2392899</v>
+        <v>2586026</v>
       </c>
       <c r="M42" s="13">
-        <v>1401029</v>
+        <v>2250806</v>
       </c>
       <c r="N42" s="13">
-        <v>2586026</v>
+        <v>3169783</v>
       </c>
       <c r="O42" s="13">
-        <v>2250806</v>
+        <v>2044118</v>
       </c>
       <c r="P42" s="13">
-        <v>3169783</v>
+        <v>3812327</v>
       </c>
       <c r="Q42" s="13">
-        <v>2044118</v>
+        <v>2837042</v>
       </c>
       <c r="R42" s="13">
-        <v>3812327</v>
+        <v>2876904</v>
       </c>
       <c r="S42" s="13">
-        <v>2837042</v>
+        <v>3032955</v>
       </c>
       <c r="T42" s="13">
-        <v>2876904</v>
+        <v>895779</v>
       </c>
       <c r="U42" s="13">
-        <v>3032955</v>
+        <v>3018839</v>
       </c>
       <c r="V42" s="13">
-        <v>895779</v>
+        <v>3979238</v>
       </c>
       <c r="W42" s="13">
-        <v>3018839</v>
+        <v>3537116</v>
       </c>
       <c r="X42" s="13">
-        <v>3979238</v>
+        <v>2235131</v>
       </c>
       <c r="Y42" s="13">
-        <v>3537116</v>
+        <v>3066349</v>
       </c>
       <c r="Z42" s="13">
-        <v>2235131</v>
+        <v>3529068</v>
       </c>
       <c r="AA42" s="13">
-        <v>3066349</v>
+        <v>1112869</v>
       </c>
       <c r="AB42" s="13">
-        <v>3529068</v>
+        <v>2462005</v>
       </c>
       <c r="AC42" s="13">
-        <v>1112869</v>
+        <v>3439605</v>
       </c>
       <c r="AD42" s="13">
-        <v>2462005</v>
+        <v>3148561</v>
       </c>
       <c r="AE42" s="13">
-        <v>3439605</v>
+        <v>3476448</v>
       </c>
       <c r="AF42" s="13">
-        <v>3148561</v>
+        <v>1666391</v>
       </c>
       <c r="AG42" s="13">
-        <v>3476448</v>
+        <v>2472254</v>
       </c>
       <c r="AH42" s="13">
-        <v>1666391</v>
+        <v>4880627</v>
       </c>
       <c r="AI42" s="13">
-        <v>2472254</v>
+        <v>5048745</v>
       </c>
       <c r="AJ42" s="13">
-        <v>4880627</v>
+        <v>4764084</v>
       </c>
       <c r="AK42" s="13">
-        <v>5048745</v>
+        <v>6608093</v>
       </c>
       <c r="AL42" s="13">
-        <v>4764084</v>
+        <v>4487490</v>
       </c>
       <c r="AM42" s="13">
-        <v>6608093</v>
+        <v>7360198</v>
       </c>
       <c r="AN42" s="13">
-        <v>4487490</v>
+        <v>7140491</v>
       </c>
       <c r="AO42" s="13">
-        <v>7360198</v>
+        <v>7906518</v>
       </c>
       <c r="AP42" s="13">
-        <v>7140491</v>
+        <v>4570944</v>
       </c>
       <c r="AQ42" s="13">
-        <v>7906518</v>
+        <v>10341079</v>
       </c>
       <c r="AR42" s="13">
-        <v>28480072</v>
+        <v>4688914</v>
       </c>
       <c r="AS42" s="13">
-        <v>10341079</v>
+        <v>10117090</v>
       </c>
       <c r="AT42" s="13">
-        <v>4686213</v>
+        <v>18164899</v>
       </c>
       <c r="AU42" s="13">
-        <v>10135359</v>
+        <v>12960363</v>
       </c>
       <c r="AV42" s="13">
-        <v>18071618</v>
+        <v>10807725</v>
       </c>
       <c r="AW42" s="13">
-        <v>12946951</v>
+        <v>8709121</v>
       </c>
       <c r="AX42" s="13">
-        <v>10807725</v>
+        <v>11109497</v>
       </c>
       <c r="AY42" s="13">
-        <v>8709121</v>
+        <v>11412609</v>
       </c>
       <c r="AZ42" s="13">
-        <v>11109497</v>
+        <v>8189159</v>
       </c>
       <c r="BA42" s="13">
-        <v>11412609</v>
+        <v>9054641</v>
       </c>
       <c r="BB42" s="13">
-        <v>8189159</v>
+        <v>10322867</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -5106,154 +5141,154 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>115591</v>
+        <v>12085</v>
       </c>
       <c r="F43" s="11">
-        <v>13417</v>
+        <v>26036</v>
       </c>
       <c r="G43" s="11">
-        <v>12085</v>
+        <v>205079</v>
       </c>
       <c r="H43" s="11">
-        <v>26036</v>
+        <v>106202</v>
       </c>
       <c r="I43" s="11">
-        <v>205079</v>
+        <v>113455</v>
       </c>
       <c r="J43" s="11">
-        <v>106202</v>
+        <v>145142</v>
       </c>
       <c r="K43" s="11">
-        <v>113455</v>
+        <v>27905</v>
       </c>
       <c r="L43" s="11">
-        <v>145142</v>
+        <v>81053</v>
       </c>
       <c r="M43" s="11">
-        <v>27905</v>
+        <v>32026</v>
       </c>
       <c r="N43" s="11">
-        <v>81053</v>
+        <v>18585</v>
       </c>
       <c r="O43" s="11">
-        <v>32026</v>
+        <v>11622</v>
       </c>
       <c r="P43" s="11">
-        <v>18585</v>
+        <v>152833</v>
       </c>
       <c r="Q43" s="11">
-        <v>11622</v>
+        <v>155557</v>
       </c>
       <c r="R43" s="11">
-        <v>152833</v>
+        <v>29785</v>
       </c>
       <c r="S43" s="11">
-        <v>155557</v>
+        <v>426085</v>
       </c>
       <c r="T43" s="11">
-        <v>29785</v>
+        <v>0</v>
       </c>
       <c r="U43" s="11">
-        <v>426085</v>
+        <v>342483</v>
       </c>
       <c r="V43" s="11">
-        <v>0</v>
+        <v>635701</v>
       </c>
       <c r="W43" s="11">
-        <v>342483</v>
+        <v>1053635</v>
       </c>
       <c r="X43" s="11">
-        <v>635701</v>
+        <v>1362341</v>
       </c>
       <c r="Y43" s="11">
-        <v>1053635</v>
+        <v>316295</v>
       </c>
       <c r="Z43" s="11">
-        <v>1362341</v>
+        <v>55800</v>
       </c>
       <c r="AA43" s="11">
-        <v>316295</v>
+        <v>719403</v>
       </c>
       <c r="AB43" s="11">
-        <v>55800</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="11">
-        <v>719403</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="11">
-        <v>0</v>
+        <v>60615</v>
       </c>
       <c r="AE43" s="11">
-        <v>0</v>
+        <v>149152</v>
       </c>
       <c r="AF43" s="11">
-        <v>60615</v>
+        <v>12213</v>
       </c>
       <c r="AG43" s="11">
-        <v>149152</v>
+        <v>286166</v>
       </c>
       <c r="AH43" s="11">
-        <v>12213</v>
+        <v>346407</v>
       </c>
       <c r="AI43" s="11">
-        <v>286166</v>
+        <v>358779</v>
       </c>
       <c r="AJ43" s="11">
-        <v>346407</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="11">
-        <v>358779</v>
+        <v>98938</v>
       </c>
       <c r="AL43" s="11">
-        <v>0</v>
+        <v>33898</v>
       </c>
       <c r="AM43" s="11">
-        <v>98938</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="11">
-        <v>33898</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="11">
-        <v>0</v>
+        <v>36142</v>
       </c>
       <c r="AP43" s="11">
         <v>0</v>
       </c>
       <c r="AQ43" s="11">
-        <v>36142</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="11">
         <v>0</v>
       </c>
       <c r="AS43" s="11">
-        <v>0</v>
+        <v>55591</v>
       </c>
       <c r="AT43" s="11">
         <v>0</v>
       </c>
       <c r="AU43" s="11">
-        <v>55591</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="11">
-        <v>0</v>
+        <v>43547</v>
       </c>
       <c r="AW43" s="11">
-        <v>0</v>
+        <v>768104</v>
       </c>
       <c r="AX43" s="11">
-        <v>43547</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="11">
-        <v>768104</v>
+        <v>59278</v>
       </c>
       <c r="AZ43" s="11">
         <v>0</v>
       </c>
       <c r="BA43" s="11">
-        <v>59278</v>
+        <v>539705</v>
       </c>
       <c r="BB43" s="11">
-        <v>0</v>
+        <v>927160</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -5265,98 +5300,98 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>348375</v>
+        <v>387873</v>
       </c>
       <c r="F44" s="13">
-        <v>249105</v>
+        <v>603885</v>
       </c>
       <c r="G44" s="13">
-        <v>387873</v>
+        <v>628832</v>
       </c>
       <c r="H44" s="13">
-        <v>603885</v>
+        <v>518242</v>
       </c>
       <c r="I44" s="13">
-        <v>628832</v>
+        <v>282029</v>
       </c>
       <c r="J44" s="13">
-        <v>518242</v>
+        <v>194698</v>
       </c>
       <c r="K44" s="13">
-        <v>282029</v>
+        <v>937102</v>
       </c>
       <c r="L44" s="13">
-        <v>194698</v>
+        <v>697023</v>
       </c>
       <c r="M44" s="13">
-        <v>937102</v>
+        <v>462918</v>
       </c>
       <c r="N44" s="13">
-        <v>697023</v>
+        <v>468628</v>
       </c>
       <c r="O44" s="13">
-        <v>462918</v>
+        <v>245901</v>
       </c>
       <c r="P44" s="13">
-        <v>468628</v>
+        <v>387827</v>
       </c>
       <c r="Q44" s="13">
-        <v>245901</v>
+        <v>393810</v>
       </c>
       <c r="R44" s="13">
-        <v>387827</v>
+        <v>161184</v>
       </c>
       <c r="S44" s="13">
-        <v>393810</v>
-      </c>
-      <c r="T44" s="13">
-        <v>161184</v>
-      </c>
-      <c r="U44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>60</v>
+      <c r="W44" s="13">
+        <v>1980607</v>
+      </c>
+      <c r="X44" s="13">
+        <v>3090584</v>
       </c>
       <c r="Y44" s="13">
-        <v>1980607</v>
+        <v>1793329</v>
       </c>
       <c r="Z44" s="13">
-        <v>3090584</v>
+        <v>1724710</v>
       </c>
       <c r="AA44" s="13">
-        <v>1793329</v>
+        <v>2954005</v>
       </c>
       <c r="AB44" s="13">
-        <v>1724710</v>
+        <v>3119135</v>
       </c>
       <c r="AC44" s="13">
-        <v>2954005</v>
+        <v>4606202</v>
       </c>
       <c r="AD44" s="13">
-        <v>3119135</v>
+        <v>4887909</v>
       </c>
       <c r="AE44" s="13">
-        <v>4606202</v>
+        <v>1819346</v>
       </c>
       <c r="AF44" s="13">
-        <v>4887909</v>
+        <v>2812568</v>
       </c>
       <c r="AG44" s="13">
-        <v>1819346</v>
-      </c>
-      <c r="AH44" s="13">
-        <v>2812568</v>
-      </c>
-      <c r="AI44" s="13">
         <v>7006473</v>
       </c>
+      <c r="AH44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI44" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ44" s="13" t="s">
         <v>60</v>
       </c>
@@ -5369,17 +5404,17 @@
       <c r="AM44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO44" s="13" t="s">
-        <v>60</v>
+      <c r="AN44" s="13">
+        <v>1061240</v>
+      </c>
+      <c r="AO44" s="13">
+        <v>206210</v>
       </c>
       <c r="AP44" s="13">
-        <v>1061240</v>
-      </c>
-      <c r="AQ44" s="13">
-        <v>206210</v>
+        <v>346948</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR44" s="13" t="s">
         <v>60</v>
@@ -5522,23 +5557,23 @@
       <c r="AK45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM45" s="11" t="s">
-        <v>60</v>
+      <c r="AL45" s="11">
+        <v>1221727</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>1028514</v>
       </c>
       <c r="AN45" s="11">
-        <v>1221727</v>
+        <v>588370</v>
       </c>
       <c r="AO45" s="11">
-        <v>1028514</v>
+        <v>248893</v>
       </c>
       <c r="AP45" s="11">
-        <v>588370</v>
-      </c>
-      <c r="AQ45" s="11">
-        <v>248893</v>
+        <v>19413</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AR45" s="11" t="s">
         <v>60</v>
@@ -5693,11 +5728,11 @@
       <c r="V47" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>60</v>
+      <c r="W47" s="17">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17">
+        <v>0</v>
       </c>
       <c r="Y47" s="17">
         <v>0</v>
@@ -5909,11 +5944,11 @@
       <c r="V49" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W49" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>60</v>
+      <c r="W49" s="17">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17">
+        <v>0</v>
       </c>
       <c r="Y49" s="17">
         <v>0</v>
@@ -6125,11 +6160,11 @@
       <c r="V51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>60</v>
+      <c r="W51" s="11">
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
@@ -6229,154 +6264,154 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>2265565</v>
+        <v>2610034</v>
       </c>
       <c r="F52" s="19">
-        <v>2075428</v>
+        <v>3307115</v>
       </c>
       <c r="G52" s="19">
-        <v>2610034</v>
+        <v>4292220</v>
       </c>
       <c r="H52" s="19">
-        <v>3307115</v>
+        <v>1444039</v>
       </c>
       <c r="I52" s="19">
-        <v>4292220</v>
+        <v>3457711</v>
       </c>
       <c r="J52" s="19">
-        <v>1444039</v>
+        <v>2952686</v>
       </c>
       <c r="K52" s="19">
-        <v>3457711</v>
+        <v>2453792</v>
       </c>
       <c r="L52" s="19">
-        <v>2952686</v>
+        <v>3440751</v>
       </c>
       <c r="M52" s="19">
-        <v>2453792</v>
+        <v>2970980</v>
       </c>
       <c r="N52" s="19">
-        <v>3440751</v>
+        <v>3740802</v>
       </c>
       <c r="O52" s="19">
-        <v>2970980</v>
+        <v>2469796</v>
       </c>
       <c r="P52" s="19">
-        <v>3740802</v>
+        <v>4680858</v>
       </c>
       <c r="Q52" s="19">
-        <v>2469796</v>
+        <v>3672789</v>
       </c>
       <c r="R52" s="19">
-        <v>4680858</v>
+        <v>3332646</v>
       </c>
       <c r="S52" s="19">
-        <v>3672789</v>
+        <v>3816873</v>
       </c>
       <c r="T52" s="19">
-        <v>3332646</v>
+        <v>946731</v>
       </c>
       <c r="U52" s="19">
-        <v>3816873</v>
+        <v>3848950</v>
       </c>
       <c r="V52" s="19">
-        <v>946731</v>
+        <v>4884697</v>
       </c>
       <c r="W52" s="19">
-        <v>3848950</v>
+        <v>6994529</v>
       </c>
       <c r="X52" s="19">
-        <v>4884697</v>
+        <v>7173870</v>
       </c>
       <c r="Y52" s="19">
-        <v>6994529</v>
+        <v>5712910</v>
       </c>
       <c r="Z52" s="19">
-        <v>7173870</v>
+        <v>5768587</v>
       </c>
       <c r="AA52" s="19">
-        <v>5712910</v>
+        <v>5282233</v>
       </c>
       <c r="AB52" s="19">
-        <v>5768587</v>
+        <v>5826290</v>
       </c>
       <c r="AC52" s="19">
-        <v>5282233</v>
+        <v>8099742</v>
       </c>
       <c r="AD52" s="19">
-        <v>5826290</v>
+        <v>8476816</v>
       </c>
       <c r="AE52" s="19">
-        <v>8099742</v>
+        <v>5864316</v>
       </c>
       <c r="AF52" s="19">
-        <v>8476816</v>
+        <v>4601827</v>
       </c>
       <c r="AG52" s="19">
-        <v>5864316</v>
+        <v>10121948</v>
       </c>
       <c r="AH52" s="19">
-        <v>4601827</v>
+        <v>5382662</v>
       </c>
       <c r="AI52" s="19">
-        <v>10121948</v>
+        <v>5553521</v>
       </c>
       <c r="AJ52" s="19">
-        <v>5382662</v>
+        <v>4974264</v>
       </c>
       <c r="AK52" s="19">
-        <v>5553521</v>
+        <v>7290445</v>
       </c>
       <c r="AL52" s="19">
-        <v>4974264</v>
+        <v>6346165</v>
       </c>
       <c r="AM52" s="19">
-        <v>7290445</v>
+        <v>8906697</v>
       </c>
       <c r="AN52" s="19">
-        <v>6346165</v>
+        <v>9713291</v>
       </c>
       <c r="AO52" s="19">
-        <v>8906697</v>
+        <v>9143825</v>
       </c>
       <c r="AP52" s="19">
-        <v>9713291</v>
+        <v>5203604</v>
       </c>
       <c r="AQ52" s="19">
-        <v>9143825</v>
+        <v>13145359</v>
       </c>
       <c r="AR52" s="19">
-        <v>33686897</v>
+        <v>5834338</v>
       </c>
       <c r="AS52" s="19">
-        <v>13145359</v>
+        <v>10715864</v>
       </c>
       <c r="AT52" s="19">
-        <v>5831637</v>
+        <v>19763435</v>
       </c>
       <c r="AU52" s="19">
-        <v>10785351</v>
+        <v>16697878</v>
       </c>
       <c r="AV52" s="19">
-        <v>19670154</v>
+        <v>12266064</v>
       </c>
       <c r="AW52" s="19">
-        <v>16684466</v>
+        <v>10909431</v>
       </c>
       <c r="AX52" s="19">
-        <v>12266064</v>
+        <v>12078635</v>
       </c>
       <c r="AY52" s="19">
-        <v>10909431</v>
+        <v>12618964</v>
       </c>
       <c r="AZ52" s="19">
-        <v>12078635</v>
+        <v>8511560</v>
       </c>
       <c r="BA52" s="19">
-        <v>12618964</v>
+        <v>10882349</v>
       </c>
       <c r="BB52" s="19">
-        <v>8511560</v>
+        <v>12794643</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -6822,154 +6857,154 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>243601990</v>
+        <v>210967337</v>
       </c>
       <c r="F59" s="11">
-        <v>236848241</v>
+        <v>204837456</v>
       </c>
       <c r="G59" s="11">
-        <v>210967337</v>
+        <v>236802391</v>
       </c>
       <c r="H59" s="11">
-        <v>204837456</v>
+        <v>250153587</v>
       </c>
       <c r="I59" s="11">
-        <v>236802391</v>
+        <v>234922167</v>
       </c>
       <c r="J59" s="11">
-        <v>250153587</v>
+        <v>251081050</v>
       </c>
       <c r="K59" s="11">
-        <v>234922167</v>
+        <v>246505618</v>
       </c>
       <c r="L59" s="11">
-        <v>251081050</v>
+        <v>241034591</v>
       </c>
       <c r="M59" s="11">
-        <v>246505618</v>
+        <v>231718107</v>
       </c>
       <c r="N59" s="11">
-        <v>241034591</v>
+        <v>223482667</v>
       </c>
       <c r="O59" s="11">
-        <v>231718107</v>
+        <v>223610372</v>
       </c>
       <c r="P59" s="11">
-        <v>223482667</v>
+        <v>227372399</v>
       </c>
       <c r="Q59" s="11">
-        <v>223610372</v>
+        <v>235316352</v>
       </c>
       <c r="R59" s="11">
-        <v>227372399</v>
+        <v>246300465</v>
       </c>
       <c r="S59" s="11">
-        <v>235316352</v>
+        <v>252528582</v>
       </c>
       <c r="T59" s="11">
-        <v>246300465</v>
+        <v>256040201</v>
       </c>
       <c r="U59" s="11">
-        <v>252528582</v>
+        <v>247150532</v>
       </c>
       <c r="V59" s="11">
-        <v>256040201</v>
+        <v>256667935</v>
       </c>
       <c r="W59" s="11">
-        <v>247150532</v>
+        <v>305538628</v>
       </c>
       <c r="X59" s="11">
-        <v>256667935</v>
+        <v>379245902</v>
       </c>
       <c r="Y59" s="11">
-        <v>305538628</v>
+        <v>429893515</v>
       </c>
       <c r="Z59" s="11">
-        <v>379245902</v>
+        <v>429381665</v>
       </c>
       <c r="AA59" s="11">
-        <v>429893515</v>
+        <v>477799615</v>
       </c>
       <c r="AB59" s="11">
-        <v>429381665</v>
+        <v>446539162</v>
       </c>
       <c r="AC59" s="11">
-        <v>477799615</v>
+        <v>544797980</v>
       </c>
       <c r="AD59" s="11">
-        <v>446539162</v>
+        <v>518050477</v>
       </c>
       <c r="AE59" s="11">
-        <v>544797980</v>
+        <v>535593870</v>
       </c>
       <c r="AF59" s="11">
-        <v>518050477</v>
+        <v>564566327</v>
       </c>
       <c r="AG59" s="11">
-        <v>535593870</v>
+        <v>564960443</v>
       </c>
       <c r="AH59" s="11">
-        <v>564566327</v>
+        <v>553836299</v>
       </c>
       <c r="AI59" s="11">
-        <v>564960443</v>
+        <v>557240458</v>
       </c>
       <c r="AJ59" s="11">
-        <v>553836299</v>
+        <v>568054054</v>
       </c>
       <c r="AK59" s="11">
-        <v>557240458</v>
+        <v>666758857</v>
       </c>
       <c r="AL59" s="11">
-        <v>568054054</v>
+        <v>795580475</v>
       </c>
       <c r="AM59" s="11">
-        <v>666758857</v>
+        <v>741037196</v>
       </c>
       <c r="AN59" s="11">
-        <v>795580475</v>
+        <v>703115004</v>
       </c>
       <c r="AO59" s="11">
-        <v>741037196</v>
+        <v>792839532</v>
       </c>
       <c r="AP59" s="11">
-        <v>703115004</v>
+        <v>832184375</v>
       </c>
       <c r="AQ59" s="11">
-        <v>792839532</v>
+        <v>921551101</v>
       </c>
       <c r="AR59" s="11">
-        <v>823701558</v>
+        <v>929727273</v>
       </c>
       <c r="AS59" s="11">
-        <v>921551101</v>
+        <v>847399376</v>
       </c>
       <c r="AT59" s="11">
-        <v>929727273</v>
+        <v>801673019</v>
       </c>
       <c r="AU59" s="11">
-        <v>874744811</v>
+        <v>801353988</v>
       </c>
       <c r="AV59" s="11">
-        <v>801673019</v>
+        <v>766824932</v>
       </c>
       <c r="AW59" s="11">
-        <v>801353988</v>
+        <v>761811702</v>
       </c>
       <c r="AX59" s="11">
-        <v>766824932</v>
+        <v>739235698</v>
       </c>
       <c r="AY59" s="11">
-        <v>761811702</v>
+        <v>757646631</v>
       </c>
       <c r="AZ59" s="11">
-        <v>739235698</v>
+        <v>869005391</v>
       </c>
       <c r="BA59" s="11">
-        <v>757646631</v>
+        <v>1001557543</v>
       </c>
       <c r="BB59" s="11">
-        <v>869005391</v>
+        <v>1235692800</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -6981,154 +7016,154 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>234943490</v>
+        <v>195235170</v>
       </c>
       <c r="F60" s="13">
-        <v>234953374</v>
+        <v>193711693</v>
       </c>
       <c r="G60" s="13">
-        <v>195235170</v>
+        <v>223224828</v>
       </c>
       <c r="H60" s="13">
-        <v>193711693</v>
+        <v>236689683</v>
       </c>
       <c r="I60" s="13">
-        <v>223224828</v>
+        <v>239323756</v>
       </c>
       <c r="J60" s="13">
-        <v>236689683</v>
+        <v>238336554</v>
       </c>
       <c r="K60" s="13">
-        <v>239323756</v>
+        <v>229338517</v>
       </c>
       <c r="L60" s="13">
-        <v>238336554</v>
+        <v>224656937</v>
       </c>
       <c r="M60" s="13">
-        <v>229338517</v>
+        <v>215759778</v>
       </c>
       <c r="N60" s="13">
-        <v>224656937</v>
+        <v>210016763</v>
       </c>
       <c r="O60" s="13">
-        <v>215759778</v>
+        <v>207377295</v>
       </c>
       <c r="P60" s="13">
-        <v>210016763</v>
+        <v>211139067</v>
       </c>
       <c r="Q60" s="13">
-        <v>207377295</v>
+        <v>220901814</v>
       </c>
       <c r="R60" s="13">
-        <v>211139067</v>
+        <v>230484217</v>
       </c>
       <c r="S60" s="13">
-        <v>220901814</v>
+        <v>240557979</v>
       </c>
       <c r="T60" s="13">
-        <v>230484217</v>
+        <v>222332837</v>
       </c>
       <c r="U60" s="13">
-        <v>240557979</v>
+        <v>230287512</v>
       </c>
       <c r="V60" s="13">
-        <v>222332837</v>
+        <v>248066704</v>
       </c>
       <c r="W60" s="13">
-        <v>230287512</v>
+        <v>283014562</v>
       </c>
       <c r="X60" s="13">
-        <v>248066704</v>
+        <v>366655348</v>
       </c>
       <c r="Y60" s="13">
-        <v>283014562</v>
+        <v>397659058</v>
       </c>
       <c r="Z60" s="13">
-        <v>366655348</v>
+        <v>428753250</v>
       </c>
       <c r="AA60" s="13">
-        <v>397659058</v>
+        <v>477012002</v>
       </c>
       <c r="AB60" s="13">
-        <v>428753250</v>
+        <v>514095845</v>
       </c>
       <c r="AC60" s="13">
-        <v>477012002</v>
+        <v>515065139</v>
       </c>
       <c r="AD60" s="13">
-        <v>514095845</v>
+        <v>494745600</v>
       </c>
       <c r="AE60" s="13">
-        <v>515065139</v>
+        <v>521362927</v>
       </c>
       <c r="AF60" s="13">
-        <v>494745600</v>
+        <v>527005376</v>
       </c>
       <c r="AG60" s="13">
-        <v>521362927</v>
+        <v>537680296</v>
       </c>
       <c r="AH60" s="13">
-        <v>527005376</v>
+        <v>520822431</v>
       </c>
       <c r="AI60" s="13">
-        <v>537680296</v>
+        <v>537157676</v>
       </c>
       <c r="AJ60" s="13">
-        <v>520822431</v>
+        <v>573778634</v>
       </c>
       <c r="AK60" s="13">
-        <v>537157676</v>
+        <v>642123506</v>
       </c>
       <c r="AL60" s="13">
-        <v>573778634</v>
+        <v>705136706</v>
       </c>
       <c r="AM60" s="13">
-        <v>642123506</v>
+        <v>686713753</v>
       </c>
       <c r="AN60" s="13">
-        <v>705136706</v>
+        <v>636293976</v>
       </c>
       <c r="AO60" s="13">
-        <v>686713753</v>
+        <v>671694673</v>
       </c>
       <c r="AP60" s="13">
-        <v>636293976</v>
+        <v>708783377</v>
       </c>
       <c r="AQ60" s="13">
-        <v>671694673</v>
+        <v>801075141</v>
       </c>
       <c r="AR60" s="13">
-        <v>692137472</v>
+        <v>788848250</v>
       </c>
       <c r="AS60" s="13">
-        <v>801075141</v>
+        <v>790706526</v>
       </c>
       <c r="AT60" s="13">
-        <v>788393843</v>
+        <v>739251953</v>
       </c>
       <c r="AU60" s="13">
-        <v>791681445</v>
+        <v>737473711</v>
       </c>
       <c r="AV60" s="13">
-        <v>737098205</v>
+        <v>724961430</v>
       </c>
       <c r="AW60" s="13">
-        <v>737253427</v>
+        <v>754101740</v>
       </c>
       <c r="AX60" s="13">
-        <v>724961430</v>
+        <v>734512198</v>
       </c>
       <c r="AY60" s="13">
-        <v>754101740</v>
+        <v>727381071</v>
       </c>
       <c r="AZ60" s="13">
-        <v>734512198</v>
+        <v>799020295</v>
       </c>
       <c r="BA60" s="13">
-        <v>727381071</v>
+        <v>926590360</v>
       </c>
       <c r="BB60" s="13">
-        <v>799020295</v>
+        <v>982475207</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
@@ -7140,154 +7175,154 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>298684755</v>
+        <v>241700000</v>
       </c>
       <c r="F61" s="11">
-        <v>291673913</v>
+        <v>238862385</v>
       </c>
       <c r="G61" s="11">
-        <v>241700000</v>
+        <v>244724344</v>
       </c>
       <c r="H61" s="11">
-        <v>238862385</v>
+        <v>247557110</v>
       </c>
       <c r="I61" s="11">
-        <v>244724344</v>
+        <v>247178649</v>
       </c>
       <c r="J61" s="11">
-        <v>247557110</v>
+        <v>251110727</v>
       </c>
       <c r="K61" s="11">
-        <v>247178649</v>
+        <v>256009174</v>
       </c>
       <c r="L61" s="11">
-        <v>251110727</v>
+        <v>237692082</v>
       </c>
       <c r="M61" s="11">
-        <v>256009174</v>
+        <v>244473282</v>
       </c>
       <c r="N61" s="11">
-        <v>237692082</v>
+        <v>213620690</v>
       </c>
       <c r="O61" s="11">
-        <v>244473282</v>
+        <v>232440000</v>
       </c>
       <c r="P61" s="11">
-        <v>213620690</v>
+        <v>224754412</v>
       </c>
       <c r="Q61" s="11">
-        <v>232440000</v>
+        <v>237129573</v>
       </c>
       <c r="R61" s="11">
-        <v>224754412</v>
+        <v>250294118</v>
       </c>
       <c r="S61" s="11">
-        <v>237129573</v>
-      </c>
-      <c r="T61" s="11">
-        <v>250294118</v>
+        <v>261241570</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="U61" s="11">
-        <v>261241570</v>
-      </c>
-      <c r="V61" s="11" t="s">
-        <v>60</v>
+        <v>244630714</v>
+      </c>
+      <c r="V61" s="11">
+        <v>257577391</v>
       </c>
       <c r="W61" s="11">
-        <v>244630714</v>
+        <v>345680774</v>
       </c>
       <c r="X61" s="11">
-        <v>257577391</v>
+        <v>447843853</v>
       </c>
       <c r="Y61" s="11">
-        <v>345680774</v>
+        <v>375201661</v>
       </c>
       <c r="Z61" s="11">
-        <v>447843853</v>
+        <v>453658537</v>
       </c>
       <c r="AA61" s="11">
-        <v>375201661</v>
-      </c>
-      <c r="AB61" s="11">
-        <v>453658537</v>
-      </c>
-      <c r="AC61" s="11">
         <v>481850636</v>
       </c>
-      <c r="AD61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE61" s="11" t="s">
-        <v>60</v>
+      <c r="AB61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>505125000</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>542370909</v>
       </c>
       <c r="AF61" s="11">
-        <v>505125000</v>
+        <v>610650000</v>
       </c>
       <c r="AG61" s="11">
-        <v>542370909</v>
+        <v>610162047</v>
       </c>
       <c r="AH61" s="11">
-        <v>610650000</v>
+        <v>572573554</v>
       </c>
       <c r="AI61" s="11">
-        <v>610162047</v>
-      </c>
-      <c r="AJ61" s="11">
-        <v>572573554</v>
+        <v>585283850</v>
+      </c>
+      <c r="AJ61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AK61" s="11">
-        <v>585283850</v>
-      </c>
-      <c r="AL61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM61" s="11">
         <v>618362500</v>
       </c>
-      <c r="AN61" s="11">
+      <c r="AL61" s="11">
         <v>847450000</v>
       </c>
-      <c r="AO61" s="11" t="s">
-        <v>60</v>
+      <c r="AM61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO61" s="11">
+        <v>926717949</v>
       </c>
       <c r="AP61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ61" s="11">
-        <v>926717949</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS61" s="11" t="s">
-        <v>60</v>
+      <c r="AQ61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS61" s="11">
+        <v>1134510204</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AU61" s="11">
-        <v>1134510204</v>
+      <c r="AU61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AV61" s="11">
-        <v>0</v>
+        <v>870940000</v>
       </c>
       <c r="AW61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="11">
-        <v>870940000</v>
+        <v>800942649</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY61" s="11">
-        <v>800942649</v>
+        <v>790373333</v>
       </c>
       <c r="AZ61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="BA61" s="11">
-        <v>790373333</v>
-      </c>
-      <c r="BB61" s="11" t="s">
-        <v>60</v>
+        <v>849929134</v>
+      </c>
+      <c r="BB61" s="11">
+        <v>786395250</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
@@ -7299,98 +7334,98 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>168541364</v>
+        <v>158380155</v>
       </c>
       <c r="F62" s="13">
-        <v>170153689</v>
+        <v>168072641</v>
       </c>
       <c r="G62" s="13">
-        <v>158380155</v>
+        <v>173279691</v>
       </c>
       <c r="H62" s="13">
-        <v>168072641</v>
+        <v>174198992</v>
       </c>
       <c r="I62" s="13">
-        <v>173279691</v>
+        <v>199032463</v>
       </c>
       <c r="J62" s="13">
-        <v>174198992</v>
+        <v>204085954</v>
       </c>
       <c r="K62" s="13">
-        <v>199032463</v>
+        <v>212591198</v>
       </c>
       <c r="L62" s="13">
-        <v>204085954</v>
+        <v>200178920</v>
       </c>
       <c r="M62" s="13">
-        <v>212591198</v>
+        <v>192241694</v>
       </c>
       <c r="N62" s="13">
-        <v>200178920</v>
+        <v>191042805</v>
       </c>
       <c r="O62" s="13">
-        <v>192241694</v>
+        <v>195004758</v>
       </c>
       <c r="P62" s="13">
-        <v>191042805</v>
+        <v>195872222</v>
       </c>
       <c r="Q62" s="13">
-        <v>195004758</v>
+        <v>213678785</v>
       </c>
       <c r="R62" s="13">
-        <v>195872222</v>
+        <v>220497948</v>
       </c>
       <c r="S62" s="13">
-        <v>213678785</v>
-      </c>
-      <c r="T62" s="13">
-        <v>220497948</v>
-      </c>
-      <c r="U62" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>60</v>
+      <c r="W62" s="13">
+        <v>283186589</v>
+      </c>
+      <c r="X62" s="13">
+        <v>335022656</v>
       </c>
       <c r="Y62" s="13">
-        <v>283186589</v>
+        <v>391471076</v>
       </c>
       <c r="Z62" s="13">
-        <v>335022656</v>
+        <v>473041690</v>
       </c>
       <c r="AA62" s="13">
-        <v>391471076</v>
+        <v>469560483</v>
       </c>
       <c r="AB62" s="13">
-        <v>473041690</v>
+        <v>514963678</v>
       </c>
       <c r="AC62" s="13">
-        <v>469560483</v>
+        <v>465038062</v>
       </c>
       <c r="AD62" s="13">
-        <v>514963678</v>
+        <v>495279056</v>
       </c>
       <c r="AE62" s="13">
-        <v>465038062</v>
+        <v>504393124</v>
       </c>
       <c r="AF62" s="13">
-        <v>495279056</v>
+        <v>514839466</v>
       </c>
       <c r="AG62" s="13">
-        <v>504393124</v>
-      </c>
-      <c r="AH62" s="13">
-        <v>514839466</v>
-      </c>
-      <c r="AI62" s="13">
         <v>507458029</v>
       </c>
+      <c r="AH62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI62" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ62" s="13" t="s">
         <v>60</v>
       </c>
@@ -7403,17 +7438,17 @@
       <c r="AM62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO62" s="13" t="s">
-        <v>60</v>
+      <c r="AN62" s="13">
+        <v>677675607</v>
+      </c>
+      <c r="AO62" s="13">
+        <v>731241135</v>
       </c>
       <c r="AP62" s="13">
-        <v>677675607</v>
-      </c>
-      <c r="AQ62" s="13">
-        <v>731241135</v>
+        <v>739761194</v>
+      </c>
+      <c r="AQ62" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR62" s="13" t="s">
         <v>60</v>
@@ -7556,23 +7591,23 @@
       <c r="AK63" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL63" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM63" s="11" t="s">
-        <v>60</v>
+      <c r="AL63" s="11">
+        <v>777674729</v>
+      </c>
+      <c r="AM63" s="11">
+        <v>716734495</v>
       </c>
       <c r="AN63" s="11">
-        <v>777674729</v>
+        <v>764116883</v>
       </c>
       <c r="AO63" s="11">
-        <v>716734495</v>
+        <v>861221453</v>
       </c>
       <c r="AP63" s="11">
-        <v>764116883</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>861221453</v>
+        <v>882409091</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>60</v>

--- a/database/industries/felezat/faira/product/monthly.xlsx
+++ b/database/industries/felezat/faira/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3216,154 +3216,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>394</v>
+        <v>862</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>862</v>
+        <v>2414</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>2414</v>
+        <v>2493</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>2493</v>
+        <v>2158</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>2158</v>
+        <v>956</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="K11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M11" s="12" t="n">
+        <v>601</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>684</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>623</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>619</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>2441</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>2712</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>2982</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>2490</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>1160</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="W11" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="N11" s="12" t="n">
-        <v>601</v>
-      </c>
-      <c r="O11" s="12" t="n">
+      <c r="X11" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>634</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>647</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>563</v>
+      </c>
+      <c r="AE11" s="12" t="n">
         <v>684</v>
       </c>
-      <c r="P11" s="12" t="n">
-        <v>623</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>619</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>2441</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>2712</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>2982</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <v>2490</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <v>1160</v>
-      </c>
-      <c r="W11" s="12" t="n">
-        <v>61</v>
-      </c>
-      <c r="X11" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y11" s="12" t="n">
-        <v>500</v>
-      </c>
-      <c r="Z11" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>634</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AD11" s="12" t="n">
-        <v>647</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>563</v>
-      </c>
       <c r="AF11" s="12" t="n">
-        <v>684</v>
+        <v>307</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>307</v>
+        <v>843</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>843</v>
+        <v>2314</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>2314</v>
+        <v>2277</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>2277</v>
+        <v>1120</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>1120</v>
+        <v>153</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>153</v>
+        <v>879</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>879</v>
+        <v>1645</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>1645</v>
+        <v>1825</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>1825</v>
+        <v>748</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>748</v>
+        <v>2502</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>2502</v>
+        <v>401</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>401</v>
+        <v>2416</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>2416</v>
+        <v>3706</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>3706</v>
+        <v>1910</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>1910</v>
+        <v>2039</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>2039</v>
+        <v>1282</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>1282</v>
+        <v>1202</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>1259</v>
+        <v>1163</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>1163</v>
+        <v>946</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>946</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,154 +3375,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>8680</v>
+        <v>7328</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>7328</v>
+        <v>9882</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>9882</v>
+        <v>11904</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>11904</v>
+        <v>11861</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>11861</v>
+        <v>9127</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>9127</v>
+        <v>10759</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>10759</v>
+        <v>11000</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>11000</v>
+        <v>11595</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>11595</v>
+        <v>12018</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>12018</v>
+        <v>11825</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>11825</v>
+        <v>10980</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>10980</v>
+        <v>13153</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>13153</v>
+        <v>11356</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>11356</v>
+        <v>12883</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>12883</v>
+        <v>11907</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>11907</v>
+        <v>12131</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>12131</v>
+        <v>6200</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>6200</v>
+        <v>3520</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>3520</v>
+        <v>7858</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>7858</v>
+        <v>9522</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>9522</v>
+        <v>10202</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>10202</v>
+        <v>8126</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>8126</v>
+        <v>4633</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>4633</v>
+        <v>4708</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>4708</v>
+        <v>11659</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>11659</v>
+        <v>9065</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>9065</v>
+        <v>394</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>394</v>
+        <v>6659</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>6659</v>
+        <v>10783</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>10783</v>
+        <v>9172</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>9172</v>
+        <v>10269</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>10269</v>
+        <v>8441</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>8441</v>
+        <v>9192</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>9192</v>
+        <v>11599</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>11599</v>
+        <v>12616</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>12616</v>
+        <v>12986</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>12986</v>
+        <v>11316</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>11316</v>
+        <v>12856</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>12856</v>
+        <v>14050</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>14050</v>
+        <v>11444</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>11444</v>
+        <v>11046</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>11046</v>
+        <v>12863</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>12863</v>
+        <v>12161</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>12161</v>
+        <v>13298</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>13298</v>
+        <v>13525</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>13525</v>
+        <v>14965</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>14965</v>
+        <v>14256</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>14256</v>
+        <v>14267</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>14267</v>
+        <v>13388</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>13388</v>
+        <v>14632</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,67 +3534,67 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>477</v>
+        <v>294</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>473</v>
+        <v>651</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>651</v>
+        <v>291</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>1396</v>
+        <v>1082</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>1082</v>
+        <v>591</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>591</v>
+        <v>1261</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>1261</v>
+        <v>2041</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>2041</v>
+        <v>3028</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>3028</v>
+        <v>2096</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>2096</v>
+        <v>497</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="12" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>0</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>458</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="12" t="n">
         <v>0</v>
@@ -3645,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>692</v>
+        <v>920</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="12" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>61</v>
+        <v>772</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,46 +3693,46 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="n">
-        <v>3593</v>
+        <v>3629</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>3629</v>
+        <v>2975</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>2975</v>
+        <v>1417</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>1417</v>
+        <v>954</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>954</v>
+        <v>4408</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>4408</v>
+        <v>3482</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>3482</v>
+        <v>2408</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>2408</v>
+        <v>2453</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>2453</v>
+        <v>1261</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>1261</v>
+        <v>1980</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>1980</v>
+        <v>1843</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>1843</v>
+        <v>731</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>731</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>60</v>
@@ -3740,42 +3740,42 @@
       <c r="T14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>60</v>
+      <c r="U14" s="15" t="n">
+        <v>6994</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>5463</v>
-      </c>
-      <c r="AF14" s="15" t="n">
         <v>13807</v>
       </c>
+      <c r="AF14" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AG14" s="15" t="s">
         <v>60</v>
       </c>
@@ -3791,17 +3791,17 @@
       <c r="AK14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL14" s="15" t="s">
-        <v>60</v>
+      <c r="AL14" s="15" t="n">
+        <v>1566</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>1566</v>
+        <v>282</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>282</v>
-      </c>
-      <c r="AO14" s="15" t="n">
         <v>469</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AP14" s="15" t="s">
         <v>60</v>
@@ -3944,23 +3944,23 @@
       <c r="AI15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AJ15" s="16" t="s">
-        <v>60</v>
+      <c r="AJ15" s="16" t="n">
+        <v>1571</v>
       </c>
       <c r="AK15" s="16" t="n">
-        <v>1571</v>
+        <v>1435</v>
       </c>
       <c r="AL15" s="16" t="n">
-        <v>1435</v>
+        <v>770</v>
       </c>
       <c r="AM15" s="16" t="n">
-        <v>770</v>
+        <v>289</v>
       </c>
       <c r="AN15" s="16" t="n">
-        <v>289</v>
-      </c>
-      <c r="AO15" s="16" t="n">
         <v>22</v>
+      </c>
+      <c r="AO15" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AP15" s="16" t="s">
         <v>60</v>
@@ -4113,8 +4113,8 @@
       <c r="T17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U17" s="20" t="s">
-        <v>60</v>
+      <c r="U17" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="20" t="n">
         <v>0</v>
@@ -4223,154 +4223,154 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="n">
-        <v>13144</v>
+        <v>12113</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>12113</v>
+        <v>15271</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>15271</v>
+        <v>15814</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>15814</v>
+        <v>15446</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>15446</v>
+        <v>15142</v>
       </c>
       <c r="J18" s="22" t="n">
-        <v>15142</v>
+        <v>14532</v>
       </c>
       <c r="K18" s="22" t="n">
-        <v>14532</v>
+        <v>13408</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>13408</v>
+        <v>14128</v>
       </c>
       <c r="M18" s="22" t="n">
-        <v>14128</v>
+        <v>14709</v>
       </c>
       <c r="N18" s="22" t="n">
-        <v>14709</v>
+        <v>14489</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>14489</v>
+        <v>14296</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>14296</v>
+        <v>14503</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>14503</v>
+        <v>15193</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>15193</v>
+        <v>16677</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>16677</v>
+        <v>15480</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>15480</v>
+        <v>15882</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>15882</v>
+        <v>16395</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>16395</v>
+        <v>15834</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>15834</v>
+        <v>14615</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>14615</v>
+        <v>14165</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>14165</v>
+        <v>16793</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>16793</v>
+        <v>14817</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>14817</v>
+        <v>14658</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>14658</v>
+        <v>15177</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>15177</v>
+        <v>16371</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>16371</v>
+        <v>15298</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>15298</v>
+        <v>14885</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>14885</v>
+        <v>6966</v>
       </c>
       <c r="AG18" s="22" t="n">
-        <v>6966</v>
+        <v>11727</v>
       </c>
       <c r="AH18" s="22" t="n">
-        <v>11727</v>
+        <v>11486</v>
       </c>
       <c r="AI18" s="22" t="n">
-        <v>11486</v>
+        <v>12546</v>
       </c>
       <c r="AJ18" s="22" t="n">
-        <v>12546</v>
+        <v>11132</v>
       </c>
       <c r="AK18" s="22" t="n">
-        <v>11132</v>
+        <v>10780</v>
       </c>
       <c r="AL18" s="22" t="n">
-        <v>10780</v>
+        <v>14814</v>
       </c>
       <c r="AM18" s="22" t="n">
-        <v>14814</v>
+        <v>14832</v>
       </c>
       <c r="AN18" s="22" t="n">
-        <v>14832</v>
+        <v>15302</v>
       </c>
       <c r="AO18" s="22" t="n">
-        <v>15302</v>
+        <v>12064</v>
       </c>
       <c r="AP18" s="22" t="n">
-        <v>12064</v>
+        <v>16045</v>
       </c>
       <c r="AQ18" s="22" t="n">
-        <v>16045</v>
+        <v>14451</v>
       </c>
       <c r="AR18" s="22" t="n">
-        <v>14451</v>
+        <v>14552</v>
       </c>
       <c r="AS18" s="22" t="n">
-        <v>14552</v>
+        <v>15672</v>
       </c>
       <c r="AT18" s="22" t="n">
-        <v>15672</v>
+        <v>14773</v>
       </c>
       <c r="AU18" s="22" t="n">
-        <v>14773</v>
+        <v>14200</v>
       </c>
       <c r="AV18" s="22" t="n">
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="AW18" s="22" t="n">
-        <v>14580</v>
+        <v>14727</v>
       </c>
       <c r="AX18" s="22" t="n">
-        <v>14727</v>
+        <v>14965</v>
       </c>
       <c r="AY18" s="22" t="n">
-        <v>14965</v>
+        <v>15515</v>
       </c>
       <c r="AZ18" s="22" t="n">
-        <v>15515</v>
+        <v>15491</v>
       </c>
       <c r="BA18" s="22" t="n">
-        <v>15491</v>
+        <v>15106</v>
       </c>
       <c r="BB18" s="22" t="n">
-        <v>15106</v>
+        <v>15127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,154 +4816,154 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="n">
-        <v>566</v>
+        <v>1422</v>
       </c>
       <c r="F25" s="16" t="n">
-        <v>1422</v>
+        <v>892</v>
       </c>
       <c r="G25" s="16" t="n">
-        <v>892</v>
+        <v>1015</v>
       </c>
       <c r="H25" s="16" t="n">
-        <v>1015</v>
+        <v>876</v>
       </c>
       <c r="I25" s="16" t="n">
-        <v>876</v>
+        <v>356</v>
       </c>
       <c r="J25" s="16" t="n">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="K25" s="16" t="n">
-        <v>318</v>
+        <v>972</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>972</v>
+        <v>375</v>
       </c>
       <c r="M25" s="16" t="n">
-        <v>375</v>
+        <v>752</v>
       </c>
       <c r="N25" s="16" t="n">
-        <v>752</v>
+        <v>1442</v>
       </c>
       <c r="O25" s="16" t="n">
-        <v>1442</v>
+        <v>1217</v>
       </c>
       <c r="P25" s="16" t="n">
-        <v>1217</v>
+        <v>1075</v>
       </c>
       <c r="Q25" s="16" t="n">
-        <v>1075</v>
+        <v>1417</v>
       </c>
       <c r="R25" s="16" t="n">
-        <v>1417</v>
+        <v>199</v>
       </c>
       <c r="S25" s="16" t="n">
-        <v>199</v>
+        <v>1973</v>
       </c>
       <c r="T25" s="16" t="n">
-        <v>1973</v>
+        <v>1051</v>
       </c>
       <c r="U25" s="16" t="n">
-        <v>1051</v>
+        <v>1385</v>
       </c>
       <c r="V25" s="16" t="n">
-        <v>1385</v>
+        <v>1281</v>
       </c>
       <c r="W25" s="16" t="n">
-        <v>1281</v>
+        <v>1249</v>
       </c>
       <c r="X25" s="16" t="n">
-        <v>1249</v>
+        <v>1069</v>
       </c>
       <c r="Y25" s="16" t="n">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="Z25" s="16" t="n">
-        <v>1038</v>
+        <v>549</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>549</v>
+        <v>99</v>
       </c>
       <c r="AB25" s="16" t="n">
-        <v>99</v>
+        <v>733</v>
       </c>
       <c r="AC25" s="16" t="n">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="AD25" s="16" t="n">
-        <v>783</v>
+        <v>196</v>
       </c>
       <c r="AE25" s="16" t="n">
-        <v>196</v>
+        <v>632</v>
       </c>
       <c r="AF25" s="16" t="n">
-        <v>632</v>
+        <v>281</v>
       </c>
       <c r="AG25" s="16" t="n">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="AH25" s="16" t="n">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="AI25" s="16" t="n">
-        <v>370</v>
+        <v>875</v>
       </c>
       <c r="AJ25" s="16" t="n">
-        <v>875</v>
+        <v>758</v>
       </c>
       <c r="AK25" s="16" t="n">
-        <v>758</v>
+        <v>699</v>
       </c>
       <c r="AL25" s="16" t="n">
-        <v>699</v>
+        <v>1313</v>
       </c>
       <c r="AM25" s="16" t="n">
-        <v>1313</v>
+        <v>941</v>
       </c>
       <c r="AN25" s="16" t="n">
-        <v>941</v>
+        <v>320</v>
       </c>
       <c r="AO25" s="16" t="n">
-        <v>320</v>
+        <v>3043</v>
       </c>
       <c r="AP25" s="16" t="n">
-        <v>3043</v>
+        <v>1232</v>
       </c>
       <c r="AQ25" s="16" t="n">
-        <v>1232</v>
+        <v>641</v>
       </c>
       <c r="AR25" s="16" t="n">
-        <v>641</v>
+        <v>1994</v>
       </c>
       <c r="AS25" s="16" t="n">
-        <v>1994</v>
+        <v>4664</v>
       </c>
       <c r="AT25" s="16" t="n">
-        <v>4664</v>
+        <v>1845</v>
       </c>
       <c r="AU25" s="16" t="n">
-        <v>1845</v>
+        <v>1880</v>
       </c>
       <c r="AV25" s="16" t="n">
-        <v>1880</v>
+        <v>1311</v>
       </c>
       <c r="AW25" s="16" t="n">
-        <v>1311</v>
+        <v>1514</v>
       </c>
       <c r="AX25" s="16" t="n">
-        <v>1514</v>
+        <v>371</v>
       </c>
       <c r="AY25" s="16" t="n">
-        <v>371</v>
+        <v>1286</v>
       </c>
       <c r="AZ25" s="16" t="n">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="BA25" s="16" t="n">
-        <v>1250</v>
+        <v>1686</v>
       </c>
       <c r="BB25" s="16" t="n">
-        <v>1686</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,154 +4975,154 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="n">
-        <v>13222</v>
+        <v>13984</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>13984</v>
+        <v>2520</v>
       </c>
       <c r="G26" s="15" t="n">
-        <v>2520</v>
+        <v>11799</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>11799</v>
+        <v>10040</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>10040</v>
+        <v>6109</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>6109</v>
+        <v>11511</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>11511</v>
+        <v>10432</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>10432</v>
+        <v>15093</v>
       </c>
       <c r="M26" s="15" t="n">
-        <v>15093</v>
+        <v>9857</v>
       </c>
       <c r="N26" s="15" t="n">
-        <v>9857</v>
+        <v>18056</v>
       </c>
       <c r="O26" s="15" t="n">
-        <v>18056</v>
+        <v>12843</v>
       </c>
       <c r="P26" s="15" t="n">
-        <v>12843</v>
+        <v>12482</v>
       </c>
       <c r="Q26" s="15" t="n">
-        <v>12482</v>
+        <v>12608</v>
       </c>
       <c r="R26" s="15" t="n">
-        <v>12608</v>
+        <v>4029</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>4029</v>
+        <v>13109</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>13109</v>
+        <v>16041</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>16041</v>
+        <v>12498</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>12498</v>
+        <v>6096</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>6096</v>
+        <v>7711</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>7711</v>
+        <v>8231</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>8231</v>
+        <v>2333</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>2333</v>
+        <v>4789</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>4789</v>
+        <v>6678</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>6678</v>
+        <v>6364</v>
       </c>
       <c r="AC26" s="15" t="n">
+        <v>6668</v>
+      </c>
+      <c r="AD26" s="15" t="n">
+        <v>3162</v>
+      </c>
+      <c r="AE26" s="15" t="n">
+        <v>4598</v>
+      </c>
+      <c r="AF26" s="15" t="n">
+        <v>9371</v>
+      </c>
+      <c r="AG26" s="15" t="n">
+        <v>9399</v>
+      </c>
+      <c r="AH26" s="15" t="n">
+        <v>8303</v>
+      </c>
+      <c r="AI26" s="15" t="n">
+        <v>10291</v>
+      </c>
+      <c r="AJ26" s="15" t="n">
         <v>6364</v>
       </c>
-      <c r="AD26" s="15" t="n">
-        <v>6668</v>
-      </c>
-      <c r="AE26" s="15" t="n">
-        <v>3162</v>
-      </c>
-      <c r="AF26" s="15" t="n">
-        <v>4598</v>
-      </c>
-      <c r="AG26" s="15" t="n">
-        <v>9371</v>
-      </c>
-      <c r="AH26" s="15" t="n">
-        <v>9399</v>
-      </c>
-      <c r="AI26" s="15" t="n">
-        <v>8303</v>
-      </c>
-      <c r="AJ26" s="15" t="n">
-        <v>10291</v>
-      </c>
       <c r="AK26" s="15" t="n">
-        <v>6364</v>
+        <v>10718</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>10718</v>
+        <v>11222</v>
       </c>
       <c r="AM26" s="15" t="n">
-        <v>11222</v>
+        <v>11771</v>
       </c>
       <c r="AN26" s="15" t="n">
-        <v>11771</v>
+        <v>6449</v>
       </c>
       <c r="AO26" s="15" t="n">
-        <v>6449</v>
+        <v>12909</v>
       </c>
       <c r="AP26" s="15" t="n">
-        <v>12909</v>
+        <v>5944</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>5944</v>
+        <v>12795</v>
       </c>
       <c r="AR26" s="15" t="n">
-        <v>12795</v>
+        <v>24572</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>24572</v>
+        <v>17574</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>17574</v>
+        <v>14908</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>14908</v>
+        <v>11549</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>11549</v>
+        <v>15125</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>15125</v>
+        <v>15690</v>
       </c>
       <c r="AX26" s="15" t="n">
-        <v>15690</v>
+        <v>10249</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>10249</v>
+        <v>9772</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>9772</v>
+        <v>10507</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>10507</v>
+        <v>11718</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>11718</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,154 +5134,154 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="n">
+        <v>838</v>
+      </c>
+      <c r="F27" s="16" t="n">
+        <v>429</v>
+      </c>
+      <c r="G27" s="16" t="n">
+        <v>459</v>
+      </c>
+      <c r="H27" s="16" t="n">
+        <v>578</v>
+      </c>
+      <c r="I27" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="F27" s="16" t="n">
-        <v>838</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>429</v>
-      </c>
-      <c r="H27" s="16" t="n">
-        <v>459</v>
-      </c>
-      <c r="I27" s="16" t="n">
-        <v>578</v>
-      </c>
       <c r="J27" s="16" t="n">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N27" s="16" t="n">
+        <v>680</v>
+      </c>
+      <c r="O27" s="16" t="n">
+        <v>656</v>
+      </c>
+      <c r="P27" s="16" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q27" s="16" t="n">
+        <v>1631</v>
+      </c>
+      <c r="R27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T27" s="16" t="n">
+        <v>2468</v>
+      </c>
+      <c r="U27" s="16" t="n">
+        <v>3048</v>
+      </c>
+      <c r="V27" s="16" t="n">
+        <v>3042</v>
+      </c>
+      <c r="W27" s="16" t="n">
+        <v>843</v>
+      </c>
+      <c r="X27" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="Y27" s="16" t="n">
+        <v>1493</v>
+      </c>
+      <c r="Z27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC27" s="16" t="n">
+        <v>275</v>
+      </c>
+      <c r="AD27" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE27" s="16" t="n">
+        <v>469</v>
+      </c>
+      <c r="AF27" s="16" t="n">
+        <v>605</v>
+      </c>
+      <c r="AG27" s="16" t="n">
+        <v>613</v>
+      </c>
+      <c r="AH27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ27" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AR27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="O27" s="16" t="n">
-        <v>680</v>
-      </c>
-      <c r="P27" s="16" t="n">
-        <v>656</v>
-      </c>
-      <c r="Q27" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="R27" s="16" t="n">
-        <v>1631</v>
-      </c>
-      <c r="S27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="16" t="n">
-        <v>1400</v>
-      </c>
-      <c r="U27" s="16" t="n">
-        <v>2468</v>
-      </c>
-      <c r="V27" s="16" t="n">
-        <v>3048</v>
-      </c>
-      <c r="W27" s="16" t="n">
-        <v>3042</v>
-      </c>
-      <c r="X27" s="16" t="n">
-        <v>843</v>
-      </c>
-      <c r="Y27" s="16" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z27" s="16" t="n">
-        <v>1493</v>
-      </c>
-      <c r="AA27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD27" s="16" t="n">
-        <v>275</v>
-      </c>
-      <c r="AE27" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF27" s="16" t="n">
-        <v>469</v>
-      </c>
-      <c r="AG27" s="16" t="n">
-        <v>605</v>
-      </c>
-      <c r="AH27" s="16" t="n">
-        <v>613</v>
-      </c>
-      <c r="AI27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK27" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AS27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AU27" s="16" t="n">
-        <v>50</v>
+        <v>959</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>635</v>
+        <v>1179</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,46 +5293,46 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="n">
-        <v>3593</v>
+        <v>3629</v>
       </c>
       <c r="F28" s="15" t="n">
-        <v>3629</v>
+        <v>2975</v>
       </c>
       <c r="G28" s="15" t="n">
-        <v>2975</v>
+        <v>1417</v>
       </c>
       <c r="H28" s="15" t="n">
-        <v>1417</v>
+        <v>954</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>954</v>
+        <v>4408</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>4408</v>
+        <v>3482</v>
       </c>
       <c r="K28" s="15" t="n">
-        <v>3482</v>
+        <v>2408</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>2408</v>
+        <v>2453</v>
       </c>
       <c r="M28" s="15" t="n">
-        <v>2453</v>
+        <v>1261</v>
       </c>
       <c r="N28" s="15" t="n">
-        <v>1261</v>
+        <v>1980</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>1980</v>
+        <v>1843</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>1843</v>
+        <v>731</v>
       </c>
       <c r="Q28" s="15" t="n">
-        <v>731</v>
-      </c>
-      <c r="R28" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S28" s="15" t="s">
         <v>60</v>
@@ -5340,42 +5340,42 @@
       <c r="T28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U28" s="15" t="s">
-        <v>60</v>
+      <c r="U28" s="15" t="n">
+        <v>6994</v>
       </c>
       <c r="V28" s="15" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W28" s="15" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X28" s="15" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y28" s="15" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z28" s="15" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA28" s="15" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB28" s="15" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC28" s="15" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD28" s="15" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE28" s="15" t="n">
-        <v>5463</v>
-      </c>
-      <c r="AF28" s="15" t="n">
         <v>13807</v>
       </c>
+      <c r="AF28" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AG28" s="15" t="s">
         <v>60</v>
       </c>
@@ -5391,17 +5391,17 @@
       <c r="AK28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL28" s="15" t="s">
-        <v>60</v>
+      <c r="AL28" s="15" t="n">
+        <v>1566</v>
       </c>
       <c r="AM28" s="15" t="n">
-        <v>1566</v>
+        <v>282</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>282</v>
-      </c>
-      <c r="AO28" s="15" t="n">
         <v>469</v>
+      </c>
+      <c r="AO28" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AP28" s="15" t="s">
         <v>60</v>
@@ -5544,23 +5544,23 @@
       <c r="AI29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AJ29" s="16" t="s">
-        <v>60</v>
+      <c r="AJ29" s="16" t="n">
+        <v>1571</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>1571</v>
+        <v>1435</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>1435</v>
+        <v>770</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>770</v>
+        <v>289</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>289</v>
-      </c>
-      <c r="AO29" s="16" t="n">
         <v>22</v>
+      </c>
+      <c r="AO29" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AP29" s="16" t="s">
         <v>60</v>
@@ -5713,8 +5713,8 @@
       <c r="T31" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>60</v>
+      <c r="U31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="20" t="n">
         <v>0</v>
@@ -5927,8 +5927,8 @@
       <c r="T33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>60</v>
+      <c r="U33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="20" t="n">
         <v>0</v>
@@ -6037,154 +6037,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>17490</v>
+        <v>19873</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>19873</v>
+        <v>6816</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>6816</v>
+        <v>14690</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>14690</v>
+        <v>12448</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>12448</v>
+        <v>10982</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>10982</v>
+        <v>15652</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>15652</v>
+        <v>13943</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>13943</v>
+        <v>18008</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>18008</v>
+        <v>11920</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>11920</v>
+        <v>22158</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>22158</v>
+        <v>16559</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>16559</v>
+        <v>14407</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>14407</v>
+        <v>15656</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>15656</v>
+        <v>4228</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>4228</v>
+        <v>16482</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>16482</v>
+        <v>19560</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>19560</v>
+        <v>23925</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>23925</v>
+        <v>19644</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>19644</v>
+        <v>14384</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>14384</v>
+        <v>13069</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>13069</v>
+        <v>11155</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>11155</v>
+        <v>11395</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>11395</v>
+        <v>16682</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>16682</v>
+        <v>17086</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>17086</v>
+        <v>11333</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>11333</v>
+        <v>8841</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>8841</v>
+        <v>19506</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>19506</v>
+        <v>10257</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>10257</v>
+        <v>10274</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>10274</v>
+        <v>8673</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>8673</v>
+        <v>11326</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>11326</v>
+        <v>8733</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>8733</v>
+        <v>12852</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>12852</v>
+        <v>14871</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>14871</v>
+        <v>13322</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>13322</v>
+        <v>7260</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>7260</v>
+        <v>15952</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>15952</v>
+        <v>7176</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>7176</v>
+        <v>13485</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>13485</v>
+        <v>26566</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>26566</v>
+        <v>22238</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>22238</v>
+        <v>16803</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>16803</v>
+        <v>14388</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>14388</v>
+        <v>16436</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>16436</v>
+        <v>17279</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>17279</v>
+        <v>10620</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>10620</v>
+        <v>11693</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>11693</v>
+        <v>12936</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>12936</v>
+        <v>13404</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>13404</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,154 +6630,154 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="n">
-        <v>115938</v>
+        <v>336733</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>336733</v>
+        <v>223137</v>
       </c>
       <c r="G41" s="16" t="n">
-        <v>223137</v>
+        <v>238446</v>
       </c>
       <c r="H41" s="16" t="n">
-        <v>238446</v>
+        <v>219947</v>
       </c>
       <c r="I41" s="16" t="n">
-        <v>219947</v>
+        <v>87756</v>
       </c>
       <c r="J41" s="16" t="n">
-        <v>87756</v>
+        <v>76649</v>
       </c>
       <c r="K41" s="16" t="n">
-        <v>76649</v>
+        <v>225230</v>
       </c>
       <c r="L41" s="16" t="n">
-        <v>225230</v>
+        <v>83806</v>
       </c>
       <c r="M41" s="16" t="n">
-        <v>83806</v>
+        <v>168155</v>
       </c>
       <c r="N41" s="16" t="n">
-        <v>168155</v>
+        <v>327871</v>
       </c>
       <c r="O41" s="16" t="n">
-        <v>327871</v>
+        <v>286380</v>
       </c>
       <c r="P41" s="16" t="n">
-        <v>286380</v>
+        <v>264773</v>
       </c>
       <c r="Q41" s="16" t="n">
-        <v>264773</v>
+        <v>357833</v>
       </c>
       <c r="R41" s="16" t="n">
-        <v>357833</v>
+        <v>50952</v>
       </c>
       <c r="S41" s="16" t="n">
-        <v>50952</v>
+        <v>487628</v>
       </c>
       <c r="T41" s="16" t="n">
-        <v>487628</v>
+        <v>269758</v>
       </c>
       <c r="U41" s="16" t="n">
-        <v>269758</v>
+        <v>423171</v>
       </c>
       <c r="V41" s="16" t="n">
-        <v>423171</v>
+        <v>485814</v>
       </c>
       <c r="W41" s="16" t="n">
-        <v>485814</v>
+        <v>536937</v>
       </c>
       <c r="X41" s="16" t="n">
-        <v>536937</v>
+        <v>459009</v>
       </c>
       <c r="Y41" s="16" t="n">
-        <v>459009</v>
+        <v>495956</v>
       </c>
       <c r="Z41" s="16" t="n">
-        <v>495956</v>
+        <v>245150</v>
       </c>
       <c r="AA41" s="16" t="n">
-        <v>245150</v>
+        <v>53935</v>
       </c>
       <c r="AB41" s="16" t="n">
-        <v>53935</v>
+        <v>379731</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>379731</v>
+        <v>419370</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>419370</v>
+        <v>110655</v>
       </c>
       <c r="AE41" s="16" t="n">
-        <v>110655</v>
+        <v>357055</v>
       </c>
       <c r="AF41" s="16" t="n">
-        <v>357055</v>
+        <v>155628</v>
       </c>
       <c r="AG41" s="16" t="n">
-        <v>155628</v>
+        <v>145997</v>
       </c>
       <c r="AH41" s="16" t="n">
-        <v>145997</v>
+        <v>210180</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>210180</v>
+        <v>583414</v>
       </c>
       <c r="AJ41" s="16" t="n">
-        <v>583414</v>
+        <v>603050</v>
       </c>
       <c r="AK41" s="16" t="n">
-        <v>603050</v>
+        <v>517985</v>
       </c>
       <c r="AL41" s="16" t="n">
-        <v>517985</v>
+        <v>923190</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>923190</v>
+        <v>746062</v>
       </c>
       <c r="AN41" s="16" t="n">
-        <v>746062</v>
+        <v>266299</v>
       </c>
       <c r="AO41" s="16" t="n">
-        <v>266299</v>
+        <v>2804280</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>2804280</v>
+        <v>1145424</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>1145424</v>
+        <v>543183</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>543183</v>
+        <v>1598536</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>1598536</v>
+        <v>3737515</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>3737515</v>
+        <v>1414792</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>1414792</v>
+        <v>1432206</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>1432206</v>
+        <v>969138</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>969138</v>
+        <v>1147077</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>1147077</v>
+        <v>322401</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>322401</v>
+        <v>1288003</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>1288003</v>
+        <v>1544616</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>1544616</v>
+        <v>2197675</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>2197675</v>
+        <v>912605</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,154 +6789,154 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="n">
-        <v>2561256</v>
+        <v>3121576</v>
       </c>
       <c r="F42" s="15" t="n">
-        <v>3121576</v>
+        <v>596458</v>
       </c>
       <c r="G42" s="15" t="n">
-        <v>596458</v>
+        <v>2823781</v>
       </c>
       <c r="H42" s="15" t="n">
-        <v>2823781</v>
+        <v>2392899</v>
       </c>
       <c r="I42" s="15" t="n">
-        <v>2392899</v>
+        <v>1401029</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>1401029</v>
+        <v>2586026</v>
       </c>
       <c r="K42" s="15" t="n">
-        <v>2586026</v>
+        <v>2250806</v>
       </c>
       <c r="L42" s="15" t="n">
-        <v>2250806</v>
+        <v>3169783</v>
       </c>
       <c r="M42" s="15" t="n">
-        <v>3169783</v>
+        <v>2044118</v>
       </c>
       <c r="N42" s="15" t="n">
-        <v>2044118</v>
+        <v>3812327</v>
       </c>
       <c r="O42" s="15" t="n">
-        <v>3812327</v>
+        <v>2837042</v>
       </c>
       <c r="P42" s="15" t="n">
-        <v>2837042</v>
+        <v>2876904</v>
       </c>
       <c r="Q42" s="15" t="n">
-        <v>2876904</v>
+        <v>3032955</v>
       </c>
       <c r="R42" s="15" t="n">
-        <v>3032955</v>
+        <v>895779</v>
       </c>
       <c r="S42" s="15" t="n">
-        <v>895779</v>
+        <v>3018839</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>3018839</v>
+        <v>3979238</v>
       </c>
       <c r="U42" s="15" t="n">
-        <v>3979238</v>
+        <v>3537116</v>
       </c>
       <c r="V42" s="15" t="n">
-        <v>3537116</v>
+        <v>2235131</v>
       </c>
       <c r="W42" s="15" t="n">
-        <v>2235131</v>
+        <v>3066349</v>
       </c>
       <c r="X42" s="15" t="n">
-        <v>3066349</v>
+        <v>3529068</v>
       </c>
       <c r="Y42" s="15" t="n">
-        <v>3529068</v>
+        <v>1112869</v>
       </c>
       <c r="Z42" s="15" t="n">
-        <v>1112869</v>
+        <v>2462005</v>
       </c>
       <c r="AA42" s="15" t="n">
-        <v>2462005</v>
+        <v>3439605</v>
       </c>
       <c r="AB42" s="15" t="n">
-        <v>3439605</v>
+        <v>3148561</v>
       </c>
       <c r="AC42" s="15" t="n">
-        <v>3148561</v>
+        <v>3476448</v>
       </c>
       <c r="AD42" s="15" t="n">
-        <v>3476448</v>
+        <v>1666391</v>
       </c>
       <c r="AE42" s="15" t="n">
-        <v>1666391</v>
+        <v>2472254</v>
       </c>
       <c r="AF42" s="15" t="n">
-        <v>2472254</v>
+        <v>4880627</v>
       </c>
       <c r="AG42" s="15" t="n">
-        <v>4880627</v>
+        <v>5048745</v>
       </c>
       <c r="AH42" s="15" t="n">
-        <v>5048745</v>
+        <v>4764084</v>
       </c>
       <c r="AI42" s="15" t="n">
-        <v>4764084</v>
+        <v>6608093</v>
       </c>
       <c r="AJ42" s="15" t="n">
-        <v>6608093</v>
+        <v>4487490</v>
       </c>
       <c r="AK42" s="15" t="n">
-        <v>4487490</v>
+        <v>7360198</v>
       </c>
       <c r="AL42" s="15" t="n">
-        <v>7360198</v>
+        <v>7140491</v>
       </c>
       <c r="AM42" s="15" t="n">
-        <v>7140491</v>
+        <v>7906518</v>
       </c>
       <c r="AN42" s="15" t="n">
-        <v>7906518</v>
+        <v>4570944</v>
       </c>
       <c r="AO42" s="15" t="n">
-        <v>4570944</v>
+        <v>10341079</v>
       </c>
       <c r="AP42" s="15" t="n">
-        <v>10341079</v>
+        <v>4688914</v>
       </c>
       <c r="AQ42" s="15" t="n">
-        <v>4688914</v>
+        <v>10117090</v>
       </c>
       <c r="AR42" s="15" t="n">
-        <v>10117090</v>
+        <v>18164899</v>
       </c>
       <c r="AS42" s="15" t="n">
-        <v>18164899</v>
+        <v>12960363</v>
       </c>
       <c r="AT42" s="15" t="n">
-        <v>12960363</v>
+        <v>10807725</v>
       </c>
       <c r="AU42" s="15" t="n">
-        <v>10807725</v>
+        <v>8709121</v>
       </c>
       <c r="AV42" s="15" t="n">
-        <v>8709121</v>
+        <v>11109497</v>
       </c>
       <c r="AW42" s="15" t="n">
-        <v>11109497</v>
+        <v>11412609</v>
       </c>
       <c r="AX42" s="15" t="n">
-        <v>11412609</v>
+        <v>8189159</v>
       </c>
       <c r="AY42" s="15" t="n">
-        <v>8189159</v>
+        <v>9054641</v>
       </c>
       <c r="AZ42" s="15" t="n">
-        <v>9054641</v>
+        <v>10322867</v>
       </c>
       <c r="BA42" s="15" t="n">
-        <v>10322867</v>
+        <v>12949833</v>
       </c>
       <c r="BB42" s="15" t="n">
-        <v>12949833</v>
+        <v>7636552</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,112 +6948,112 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16" t="n">
-        <v>26036</v>
+        <v>205079</v>
       </c>
       <c r="F43" s="16" t="n">
-        <v>205079</v>
+        <v>106202</v>
       </c>
       <c r="G43" s="16" t="n">
-        <v>106202</v>
+        <v>113455</v>
       </c>
       <c r="H43" s="16" t="n">
-        <v>113455</v>
+        <v>145142</v>
       </c>
       <c r="I43" s="16" t="n">
-        <v>145142</v>
+        <v>27905</v>
       </c>
       <c r="J43" s="16" t="n">
-        <v>27905</v>
+        <v>81053</v>
       </c>
       <c r="K43" s="16" t="n">
-        <v>81053</v>
+        <v>32026</v>
       </c>
       <c r="L43" s="16" t="n">
-        <v>32026</v>
+        <v>18585</v>
       </c>
       <c r="M43" s="16" t="n">
-        <v>18585</v>
+        <v>11622</v>
       </c>
       <c r="N43" s="16" t="n">
-        <v>11622</v>
+        <v>152833</v>
       </c>
       <c r="O43" s="16" t="n">
-        <v>152833</v>
+        <v>155557</v>
       </c>
       <c r="P43" s="16" t="n">
-        <v>155557</v>
+        <v>29785</v>
       </c>
       <c r="Q43" s="16" t="n">
-        <v>29785</v>
+        <v>426085</v>
       </c>
       <c r="R43" s="16" t="n">
-        <v>426085</v>
+        <v>0</v>
       </c>
       <c r="S43" s="16" t="n">
-        <v>0</v>
+        <v>342483</v>
       </c>
       <c r="T43" s="16" t="n">
-        <v>342483</v>
+        <v>635701</v>
       </c>
       <c r="U43" s="16" t="n">
-        <v>635701</v>
+        <v>1053635</v>
       </c>
       <c r="V43" s="16" t="n">
-        <v>1053635</v>
+        <v>1362341</v>
       </c>
       <c r="W43" s="16" t="n">
-        <v>1362341</v>
+        <v>316295</v>
       </c>
       <c r="X43" s="16" t="n">
-        <v>316295</v>
+        <v>55800</v>
       </c>
       <c r="Y43" s="16" t="n">
-        <v>55800</v>
+        <v>719403</v>
       </c>
       <c r="Z43" s="16" t="n">
-        <v>719403</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AB43" s="16" t="n">
-        <v>0</v>
+        <v>60615</v>
       </c>
       <c r="AC43" s="16" t="n">
-        <v>60615</v>
+        <v>149152</v>
       </c>
       <c r="AD43" s="16" t="n">
-        <v>149152</v>
+        <v>12213</v>
       </c>
       <c r="AE43" s="16" t="n">
-        <v>12213</v>
+        <v>286166</v>
       </c>
       <c r="AF43" s="16" t="n">
-        <v>286166</v>
+        <v>346407</v>
       </c>
       <c r="AG43" s="16" t="n">
-        <v>346407</v>
+        <v>358779</v>
       </c>
       <c r="AH43" s="16" t="n">
-        <v>358779</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="16" t="n">
-        <v>0</v>
+        <v>98938</v>
       </c>
       <c r="AJ43" s="16" t="n">
-        <v>98938</v>
+        <v>33898</v>
       </c>
       <c r="AK43" s="16" t="n">
-        <v>33898</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AM43" s="16" t="n">
-        <v>0</v>
+        <v>36142</v>
       </c>
       <c r="AN43" s="16" t="n">
-        <v>36142</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="16" t="n">
         <v>0</v>
@@ -7062,40 +7062,40 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="16" t="n">
-        <v>0</v>
+        <v>55591</v>
       </c>
       <c r="AR43" s="16" t="n">
-        <v>55591</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AT43" s="16" t="n">
-        <v>0</v>
+        <v>43547</v>
       </c>
       <c r="AU43" s="16" t="n">
-        <v>43547</v>
+        <v>768104</v>
       </c>
       <c r="AV43" s="16" t="n">
-        <v>768104</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="16" t="n">
-        <v>0</v>
+        <v>59278</v>
       </c>
       <c r="AX43" s="16" t="n">
-        <v>59278</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="16" t="n">
-        <v>0</v>
+        <v>539705</v>
       </c>
       <c r="AZ43" s="16" t="n">
-        <v>539705</v>
+        <v>927160</v>
       </c>
       <c r="BA43" s="16" t="n">
-        <v>927160</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="16" t="n">
-        <v>0</v>
+        <v>296511</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,46 +7107,46 @@
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="n">
-        <v>603885</v>
+        <v>628832</v>
       </c>
       <c r="F44" s="15" t="n">
-        <v>628832</v>
+        <v>518242</v>
       </c>
       <c r="G44" s="15" t="n">
-        <v>518242</v>
+        <v>282029</v>
       </c>
       <c r="H44" s="15" t="n">
-        <v>282029</v>
+        <v>194698</v>
       </c>
       <c r="I44" s="15" t="n">
-        <v>194698</v>
+        <v>937102</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>937102</v>
+        <v>697023</v>
       </c>
       <c r="K44" s="15" t="n">
-        <v>697023</v>
+        <v>462918</v>
       </c>
       <c r="L44" s="15" t="n">
-        <v>462918</v>
+        <v>468628</v>
       </c>
       <c r="M44" s="15" t="n">
-        <v>468628</v>
+        <v>245901</v>
       </c>
       <c r="N44" s="15" t="n">
-        <v>245901</v>
+        <v>387827</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>387827</v>
+        <v>393810</v>
       </c>
       <c r="P44" s="15" t="n">
-        <v>393810</v>
+        <v>161184</v>
       </c>
       <c r="Q44" s="15" t="n">
-        <v>161184</v>
-      </c>
-      <c r="R44" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S44" s="15" t="s">
         <v>60</v>
@@ -7154,42 +7154,42 @@
       <c r="T44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U44" s="15" t="s">
-        <v>60</v>
+      <c r="U44" s="15" t="n">
+        <v>1980607</v>
       </c>
       <c r="V44" s="15" t="n">
-        <v>1980607</v>
+        <v>3090584</v>
       </c>
       <c r="W44" s="15" t="n">
-        <v>3090584</v>
+        <v>1793329</v>
       </c>
       <c r="X44" s="15" t="n">
-        <v>1793329</v>
+        <v>1724710</v>
       </c>
       <c r="Y44" s="15" t="n">
-        <v>1724710</v>
+        <v>2954005</v>
       </c>
       <c r="Z44" s="15" t="n">
-        <v>2954005</v>
+        <v>3119135</v>
       </c>
       <c r="AA44" s="15" t="n">
-        <v>3119135</v>
+        <v>4606202</v>
       </c>
       <c r="AB44" s="15" t="n">
-        <v>4606202</v>
+        <v>4887909</v>
       </c>
       <c r="AC44" s="15" t="n">
-        <v>4887909</v>
+        <v>1819346</v>
       </c>
       <c r="AD44" s="15" t="n">
-        <v>1819346</v>
+        <v>2812568</v>
       </c>
       <c r="AE44" s="15" t="n">
-        <v>2812568</v>
-      </c>
-      <c r="AF44" s="15" t="n">
         <v>7006473</v>
       </c>
+      <c r="AF44" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AG44" s="15" t="s">
         <v>60</v>
       </c>
@@ -7205,17 +7205,17 @@
       <c r="AK44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL44" s="15" t="s">
-        <v>60</v>
+      <c r="AL44" s="15" t="n">
+        <v>1061240</v>
       </c>
       <c r="AM44" s="15" t="n">
-        <v>1061240</v>
+        <v>206210</v>
       </c>
       <c r="AN44" s="15" t="n">
-        <v>206210</v>
-      </c>
-      <c r="AO44" s="15" t="n">
         <v>346948</v>
+      </c>
+      <c r="AO44" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AP44" s="15" t="s">
         <v>60</v>
@@ -7358,23 +7358,23 @@
       <c r="AI45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AJ45" s="16" t="s">
-        <v>60</v>
+      <c r="AJ45" s="16" t="n">
+        <v>1221727</v>
       </c>
       <c r="AK45" s="16" t="n">
-        <v>1221727</v>
+        <v>1028514</v>
       </c>
       <c r="AL45" s="16" t="n">
-        <v>1028514</v>
+        <v>588370</v>
       </c>
       <c r="AM45" s="16" t="n">
-        <v>588370</v>
+        <v>248893</v>
       </c>
       <c r="AN45" s="16" t="n">
-        <v>248893</v>
-      </c>
-      <c r="AO45" s="16" t="n">
         <v>19413</v>
+      </c>
+      <c r="AO45" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AP45" s="16" t="s">
         <v>60</v>
@@ -7529,8 +7529,8 @@
       <c r="T47" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>60</v>
+      <c r="U47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="23" t="n">
         <v>0</v>
@@ -7745,8 +7745,8 @@
       <c r="T49" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>60</v>
+      <c r="U49" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="23" t="n">
         <v>0</v>
@@ -7961,8 +7961,8 @@
       <c r="T51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>60</v>
+      <c r="U51" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="16" t="n">
         <v>0</v>
@@ -8071,154 +8071,154 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="n">
-        <v>3307115</v>
+        <v>4292220</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>4292220</v>
+        <v>1444039</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>1444039</v>
+        <v>3457711</v>
       </c>
       <c r="H52" s="22" t="n">
-        <v>3457711</v>
+        <v>2952686</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>2952686</v>
+        <v>2453792</v>
       </c>
       <c r="J52" s="22" t="n">
-        <v>2453792</v>
+        <v>3440751</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>3440751</v>
+        <v>2970980</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>2970980</v>
+        <v>3740802</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>3740802</v>
+        <v>2469796</v>
       </c>
       <c r="N52" s="22" t="n">
-        <v>2469796</v>
+        <v>4680858</v>
       </c>
       <c r="O52" s="22" t="n">
-        <v>4680858</v>
+        <v>3672789</v>
       </c>
       <c r="P52" s="22" t="n">
-        <v>3672789</v>
+        <v>3332646</v>
       </c>
       <c r="Q52" s="22" t="n">
-        <v>3332646</v>
+        <v>3816873</v>
       </c>
       <c r="R52" s="22" t="n">
-        <v>3816873</v>
+        <v>946731</v>
       </c>
       <c r="S52" s="22" t="n">
-        <v>946731</v>
+        <v>3848950</v>
       </c>
       <c r="T52" s="22" t="n">
-        <v>3848950</v>
+        <v>4884697</v>
       </c>
       <c r="U52" s="22" t="n">
-        <v>4884697</v>
+        <v>6994529</v>
       </c>
       <c r="V52" s="22" t="n">
-        <v>6994529</v>
+        <v>7173870</v>
       </c>
       <c r="W52" s="22" t="n">
-        <v>7173870</v>
+        <v>5712910</v>
       </c>
       <c r="X52" s="22" t="n">
-        <v>5712910</v>
+        <v>5768587</v>
       </c>
       <c r="Y52" s="22" t="n">
-        <v>5768587</v>
+        <v>5282233</v>
       </c>
       <c r="Z52" s="22" t="n">
-        <v>5282233</v>
+        <v>5826290</v>
       </c>
       <c r="AA52" s="22" t="n">
-        <v>5826290</v>
+        <v>8099742</v>
       </c>
       <c r="AB52" s="22" t="n">
-        <v>8099742</v>
+        <v>8476816</v>
       </c>
       <c r="AC52" s="22" t="n">
-        <v>8476816</v>
+        <v>5864316</v>
       </c>
       <c r="AD52" s="22" t="n">
-        <v>5864316</v>
+        <v>4601827</v>
       </c>
       <c r="AE52" s="22" t="n">
-        <v>4601827</v>
+        <v>10121948</v>
       </c>
       <c r="AF52" s="22" t="n">
-        <v>10121948</v>
+        <v>5382662</v>
       </c>
       <c r="AG52" s="22" t="n">
-        <v>5382662</v>
+        <v>5553521</v>
       </c>
       <c r="AH52" s="22" t="n">
-        <v>5553521</v>
+        <v>4974264</v>
       </c>
       <c r="AI52" s="22" t="n">
-        <v>4974264</v>
+        <v>7290445</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>7290445</v>
+        <v>6346165</v>
       </c>
       <c r="AK52" s="22" t="n">
-        <v>6346165</v>
+        <v>8906697</v>
       </c>
       <c r="AL52" s="22" t="n">
-        <v>8906697</v>
+        <v>9713291</v>
       </c>
       <c r="AM52" s="22" t="n">
-        <v>9713291</v>
+        <v>9143825</v>
       </c>
       <c r="AN52" s="22" t="n">
-        <v>9143825</v>
+        <v>5203604</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>5203604</v>
+        <v>13145359</v>
       </c>
       <c r="AP52" s="22" t="n">
-        <v>13145359</v>
+        <v>5834338</v>
       </c>
       <c r="AQ52" s="22" t="n">
-        <v>5834338</v>
+        <v>10715864</v>
       </c>
       <c r="AR52" s="22" t="n">
-        <v>10715864</v>
+        <v>19763435</v>
       </c>
       <c r="AS52" s="22" t="n">
-        <v>19763435</v>
+        <v>16697878</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>16697878</v>
+        <v>12266064</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>12266064</v>
+        <v>10909431</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>10909431</v>
+        <v>12078635</v>
       </c>
       <c r="AW52" s="22" t="n">
-        <v>12078635</v>
+        <v>12618964</v>
       </c>
       <c r="AX52" s="22" t="n">
-        <v>12618964</v>
+        <v>8511560</v>
       </c>
       <c r="AY52" s="22" t="n">
-        <v>8511560</v>
+        <v>10882349</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>10882349</v>
+        <v>12794643</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>12794643</v>
+        <v>15147508</v>
       </c>
       <c r="BB52" s="22" t="n">
-        <v>15147508</v>
+        <v>8845668</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,154 +8664,154 @@
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="n">
-        <v>204837456</v>
+        <v>236802391</v>
       </c>
       <c r="F59" s="16" t="n">
-        <v>236802391</v>
+        <v>250153587</v>
       </c>
       <c r="G59" s="16" t="n">
-        <v>250153587</v>
+        <v>234922167</v>
       </c>
       <c r="H59" s="16" t="n">
-        <v>234922167</v>
+        <v>251081050</v>
       </c>
       <c r="I59" s="16" t="n">
-        <v>251081050</v>
+        <v>246505618</v>
       </c>
       <c r="J59" s="16" t="n">
-        <v>246505618</v>
+        <v>241034591</v>
       </c>
       <c r="K59" s="16" t="n">
-        <v>241034591</v>
+        <v>231718107</v>
       </c>
       <c r="L59" s="16" t="n">
-        <v>231718107</v>
+        <v>223482667</v>
       </c>
       <c r="M59" s="16" t="n">
-        <v>223482667</v>
+        <v>223610372</v>
       </c>
       <c r="N59" s="16" t="n">
-        <v>223610372</v>
+        <v>227372399</v>
       </c>
       <c r="O59" s="16" t="n">
-        <v>227372399</v>
+        <v>235316352</v>
       </c>
       <c r="P59" s="16" t="n">
-        <v>235316352</v>
+        <v>246300465</v>
       </c>
       <c r="Q59" s="16" t="n">
-        <v>246300465</v>
+        <v>252528582</v>
       </c>
       <c r="R59" s="16" t="n">
-        <v>252528582</v>
+        <v>256040201</v>
       </c>
       <c r="S59" s="16" t="n">
-        <v>256040201</v>
+        <v>247150532</v>
       </c>
       <c r="T59" s="16" t="n">
-        <v>247150532</v>
+        <v>256667935</v>
       </c>
       <c r="U59" s="16" t="n">
-        <v>256667935</v>
+        <v>305538628</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>305538628</v>
+        <v>379245902</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>379245902</v>
+        <v>429893515</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>429893515</v>
+        <v>429381665</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>429381665</v>
+        <v>477799615</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>477799615</v>
+        <v>446539162</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>446539162</v>
+        <v>544797980</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>544797980</v>
+        <v>518050477</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>518050477</v>
+        <v>535593870</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>535593870</v>
+        <v>564566327</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>564566327</v>
+        <v>564960443</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>564960443</v>
+        <v>553836299</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>553836299</v>
+        <v>557240458</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>557240458</v>
+        <v>568054054</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>568054054</v>
+        <v>666758857</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>666758857</v>
+        <v>795580475</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>795580475</v>
+        <v>741037196</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>741037196</v>
+        <v>703115004</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>703115004</v>
+        <v>792839532</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>792839532</v>
+        <v>832184375</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>832184375</v>
+        <v>921551101</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>921551101</v>
+        <v>929727273</v>
       </c>
       <c r="AQ59" s="16" t="n">
-        <v>929727273</v>
+        <v>847399376</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>847399376</v>
+        <v>801673019</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>801673019</v>
+        <v>801353988</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>801353988</v>
+        <v>766824932</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>766824932</v>
+        <v>761811702</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>761811702</v>
+        <v>739235698</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>739235698</v>
+        <v>757646631</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>757646631</v>
+        <v>869005391</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>869005391</v>
+        <v>1001557543</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>1001557543</v>
+        <v>1235692800</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>1235692800</v>
+        <v>1303484579</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>1303484579</v>
+        <v>1224973154</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,154 +8823,154 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="n">
-        <v>193711693</v>
+        <v>223224828</v>
       </c>
       <c r="F60" s="15" t="n">
-        <v>223224828</v>
+        <v>236689683</v>
       </c>
       <c r="G60" s="15" t="n">
-        <v>236689683</v>
+        <v>239323756</v>
       </c>
       <c r="H60" s="15" t="n">
-        <v>239323756</v>
+        <v>238336554</v>
       </c>
       <c r="I60" s="15" t="n">
-        <v>238336554</v>
+        <v>229338517</v>
       </c>
       <c r="J60" s="15" t="n">
-        <v>229338517</v>
+        <v>224656937</v>
       </c>
       <c r="K60" s="15" t="n">
-        <v>224656937</v>
+        <v>215759778</v>
       </c>
       <c r="L60" s="15" t="n">
-        <v>215759778</v>
+        <v>210016763</v>
       </c>
       <c r="M60" s="15" t="n">
-        <v>210016763</v>
+        <v>207377295</v>
       </c>
       <c r="N60" s="15" t="n">
-        <v>207377295</v>
+        <v>211139067</v>
       </c>
       <c r="O60" s="15" t="n">
-        <v>211139067</v>
+        <v>220901814</v>
       </c>
       <c r="P60" s="15" t="n">
-        <v>220901814</v>
+        <v>230484217</v>
       </c>
       <c r="Q60" s="15" t="n">
-        <v>230484217</v>
+        <v>240557979</v>
       </c>
       <c r="R60" s="15" t="n">
-        <v>240557979</v>
+        <v>222332837</v>
       </c>
       <c r="S60" s="15" t="n">
-        <v>222332837</v>
+        <v>230287512</v>
       </c>
       <c r="T60" s="15" t="n">
-        <v>230287512</v>
+        <v>248066704</v>
       </c>
       <c r="U60" s="15" t="n">
-        <v>248066704</v>
+        <v>283014562</v>
       </c>
       <c r="V60" s="15" t="n">
-        <v>283014562</v>
+        <v>366655348</v>
       </c>
       <c r="W60" s="15" t="n">
-        <v>366655348</v>
+        <v>397659058</v>
       </c>
       <c r="X60" s="15" t="n">
-        <v>397659058</v>
+        <v>428753250</v>
       </c>
       <c r="Y60" s="15" t="n">
-        <v>428753250</v>
+        <v>477012002</v>
       </c>
       <c r="Z60" s="15" t="n">
-        <v>477012002</v>
+        <v>514095845</v>
       </c>
       <c r="AA60" s="15" t="n">
-        <v>514095845</v>
+        <v>515065139</v>
       </c>
       <c r="AB60" s="15" t="n">
-        <v>515065139</v>
+        <v>494745600</v>
       </c>
       <c r="AC60" s="15" t="n">
-        <v>494745600</v>
+        <v>521362927</v>
       </c>
       <c r="AD60" s="15" t="n">
-        <v>521362927</v>
+        <v>527005376</v>
       </c>
       <c r="AE60" s="15" t="n">
-        <v>527005376</v>
+        <v>537680296</v>
       </c>
       <c r="AF60" s="15" t="n">
-        <v>537680296</v>
+        <v>520822431</v>
       </c>
       <c r="AG60" s="15" t="n">
-        <v>520822431</v>
+        <v>537157676</v>
       </c>
       <c r="AH60" s="15" t="n">
-        <v>537157676</v>
+        <v>573778634</v>
       </c>
       <c r="AI60" s="15" t="n">
-        <v>573778634</v>
+        <v>642123506</v>
       </c>
       <c r="AJ60" s="15" t="n">
-        <v>642123506</v>
+        <v>705136706</v>
       </c>
       <c r="AK60" s="15" t="n">
-        <v>705136706</v>
+        <v>686713753</v>
       </c>
       <c r="AL60" s="15" t="n">
-        <v>686713753</v>
+        <v>636293976</v>
       </c>
       <c r="AM60" s="15" t="n">
-        <v>636293976</v>
+        <v>671694673</v>
       </c>
       <c r="AN60" s="15" t="n">
-        <v>671694673</v>
+        <v>708783377</v>
       </c>
       <c r="AO60" s="15" t="n">
-        <v>708783377</v>
+        <v>801075141</v>
       </c>
       <c r="AP60" s="15" t="n">
-        <v>801075141</v>
+        <v>788848250</v>
       </c>
       <c r="AQ60" s="15" t="n">
-        <v>788848250</v>
+        <v>790706526</v>
       </c>
       <c r="AR60" s="15" t="n">
-        <v>790706526</v>
+        <v>739251953</v>
       </c>
       <c r="AS60" s="15" t="n">
-        <v>739251953</v>
+        <v>737473711</v>
       </c>
       <c r="AT60" s="15" t="n">
-        <v>737473711</v>
+        <v>724961430</v>
       </c>
       <c r="AU60" s="15" t="n">
-        <v>724961430</v>
+        <v>754101740</v>
       </c>
       <c r="AV60" s="15" t="n">
-        <v>754101740</v>
+        <v>734512198</v>
       </c>
       <c r="AW60" s="15" t="n">
-        <v>734512198</v>
+        <v>727381071</v>
       </c>
       <c r="AX60" s="15" t="n">
-        <v>727381071</v>
+        <v>799020295</v>
       </c>
       <c r="AY60" s="15" t="n">
-        <v>799020295</v>
+        <v>926590360</v>
       </c>
       <c r="AZ60" s="15" t="n">
-        <v>926590360</v>
+        <v>982475207</v>
       </c>
       <c r="BA60" s="15" t="n">
-        <v>982475207</v>
+        <v>1105123144</v>
       </c>
       <c r="BB60" s="15" t="n">
-        <v>1105123144</v>
+        <v>1066259704</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8982,154 +8982,154 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="n">
-        <v>238862385</v>
+        <v>244724344</v>
       </c>
       <c r="F61" s="16" t="n">
-        <v>244724344</v>
+        <v>247557110</v>
       </c>
       <c r="G61" s="16" t="n">
-        <v>247557110</v>
+        <v>247178649</v>
       </c>
       <c r="H61" s="16" t="n">
-        <v>247178649</v>
+        <v>251110727</v>
       </c>
       <c r="I61" s="16" t="n">
-        <v>251110727</v>
+        <v>256009174</v>
       </c>
       <c r="J61" s="16" t="n">
-        <v>256009174</v>
+        <v>237692082</v>
       </c>
       <c r="K61" s="16" t="n">
-        <v>237692082</v>
+        <v>244473282</v>
       </c>
       <c r="L61" s="16" t="n">
-        <v>244473282</v>
+        <v>213620690</v>
       </c>
       <c r="M61" s="16" t="n">
-        <v>213620690</v>
+        <v>232440000</v>
       </c>
       <c r="N61" s="16" t="n">
-        <v>232440000</v>
+        <v>224754412</v>
       </c>
       <c r="O61" s="16" t="n">
-        <v>224754412</v>
+        <v>237129573</v>
       </c>
       <c r="P61" s="16" t="n">
-        <v>237129573</v>
+        <v>250294118</v>
       </c>
       <c r="Q61" s="16" t="n">
-        <v>250294118</v>
-      </c>
-      <c r="R61" s="16" t="n">
         <v>261241570</v>
       </c>
-      <c r="S61" s="16" t="s">
-        <v>60</v>
+      <c r="R61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S61" s="16" t="n">
+        <v>244630714</v>
       </c>
       <c r="T61" s="16" t="n">
-        <v>244630714</v>
+        <v>257577391</v>
       </c>
       <c r="U61" s="16" t="n">
-        <v>257577391</v>
+        <v>345680774</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>345680774</v>
+        <v>447843853</v>
       </c>
       <c r="W61" s="16" t="n">
-        <v>447843853</v>
+        <v>375201661</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>375201661</v>
+        <v>453658537</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>453658537</v>
-      </c>
-      <c r="Z61" s="16" t="n">
         <v>481850636</v>
       </c>
+      <c r="Z61" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AA61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AB61" s="16" t="s">
-        <v>60</v>
+      <c r="AB61" s="16" t="n">
+        <v>505125000</v>
       </c>
       <c r="AC61" s="16" t="n">
-        <v>505125000</v>
+        <v>542370909</v>
       </c>
       <c r="AD61" s="16" t="n">
-        <v>542370909</v>
+        <v>610650000</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>610650000</v>
+        <v>610162047</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>610162047</v>
+        <v>572573554</v>
       </c>
       <c r="AG61" s="16" t="n">
-        <v>572573554</v>
-      </c>
-      <c r="AH61" s="16" t="n">
         <v>585283850</v>
       </c>
-      <c r="AI61" s="16" t="s">
-        <v>60</v>
+      <c r="AH61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI61" s="16" t="n">
+        <v>618362500</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>618362500</v>
-      </c>
-      <c r="AK61" s="16" t="n">
         <v>847450000</v>
       </c>
+      <c r="AK61" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AL61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AM61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN61" s="16" t="n">
+      <c r="AM61" s="16" t="n">
         <v>926717949</v>
       </c>
+      <c r="AN61" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AO61" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AP61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AQ61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR61" s="16" t="n">
+      <c r="AQ61" s="16" t="n">
         <v>1134510204</v>
       </c>
+      <c r="AR61" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AS61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AT61" s="16" t="s">
-        <v>60</v>
+      <c r="AT61" s="16" t="n">
+        <v>870940000</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>870940000</v>
-      </c>
-      <c r="AV61" s="16" t="n">
         <v>800942649</v>
       </c>
-      <c r="AW61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX61" s="16" t="n">
+      <c r="AV61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW61" s="16" t="n">
         <v>790373333</v>
       </c>
-      <c r="AY61" s="16" t="s">
-        <v>60</v>
+      <c r="AX61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY61" s="16" t="n">
+        <v>849929134</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>849929134</v>
-      </c>
-      <c r="BA61" s="16" t="n">
         <v>786395250</v>
       </c>
-      <c r="BB61" s="16" t="s">
-        <v>60</v>
+      <c r="BA61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB61" s="16" t="n">
+        <v>988370000</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9141,46 +9141,46 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="n">
-        <v>168072641</v>
+        <v>173279691</v>
       </c>
       <c r="F62" s="15" t="n">
-        <v>173279691</v>
+        <v>174198992</v>
       </c>
       <c r="G62" s="15" t="n">
-        <v>174198992</v>
+        <v>199032463</v>
       </c>
       <c r="H62" s="15" t="n">
-        <v>199032463</v>
+        <v>204085954</v>
       </c>
       <c r="I62" s="15" t="n">
-        <v>204085954</v>
+        <v>212591198</v>
       </c>
       <c r="J62" s="15" t="n">
-        <v>212591198</v>
+        <v>200178920</v>
       </c>
       <c r="K62" s="15" t="n">
-        <v>200178920</v>
+        <v>192241694</v>
       </c>
       <c r="L62" s="15" t="n">
-        <v>192241694</v>
+        <v>191042805</v>
       </c>
       <c r="M62" s="15" t="n">
-        <v>191042805</v>
+        <v>195004758</v>
       </c>
       <c r="N62" s="15" t="n">
-        <v>195004758</v>
+        <v>195872222</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>195872222</v>
+        <v>213678785</v>
       </c>
       <c r="P62" s="15" t="n">
-        <v>213678785</v>
+        <v>220497948</v>
       </c>
       <c r="Q62" s="15" t="n">
-        <v>220497948</v>
-      </c>
-      <c r="R62" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>60</v>
@@ -9188,42 +9188,42 @@
       <c r="T62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U62" s="15" t="s">
-        <v>60</v>
+      <c r="U62" s="15" t="n">
+        <v>283186589</v>
       </c>
       <c r="V62" s="15" t="n">
-        <v>283186589</v>
+        <v>335022656</v>
       </c>
       <c r="W62" s="15" t="n">
-        <v>335022656</v>
+        <v>391471076</v>
       </c>
       <c r="X62" s="15" t="n">
-        <v>391471076</v>
+        <v>473041690</v>
       </c>
       <c r="Y62" s="15" t="n">
-        <v>473041690</v>
+        <v>469560483</v>
       </c>
       <c r="Z62" s="15" t="n">
-        <v>469560483</v>
+        <v>514963678</v>
       </c>
       <c r="AA62" s="15" t="n">
-        <v>514963678</v>
+        <v>465038062</v>
       </c>
       <c r="AB62" s="15" t="n">
-        <v>465038062</v>
+        <v>495279056</v>
       </c>
       <c r="AC62" s="15" t="n">
-        <v>495279056</v>
+        <v>504393124</v>
       </c>
       <c r="AD62" s="15" t="n">
-        <v>504393124</v>
+        <v>514839466</v>
       </c>
       <c r="AE62" s="15" t="n">
-        <v>514839466</v>
-      </c>
-      <c r="AF62" s="15" t="n">
         <v>507458029</v>
       </c>
+      <c r="AF62" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AG62" s="15" t="s">
         <v>60</v>
       </c>
@@ -9239,17 +9239,17 @@
       <c r="AK62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL62" s="15" t="s">
-        <v>60</v>
+      <c r="AL62" s="15" t="n">
+        <v>677675607</v>
       </c>
       <c r="AM62" s="15" t="n">
-        <v>677675607</v>
+        <v>731241135</v>
       </c>
       <c r="AN62" s="15" t="n">
-        <v>731241135</v>
-      </c>
-      <c r="AO62" s="15" t="n">
         <v>739761194</v>
+      </c>
+      <c r="AO62" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AP62" s="15" t="s">
         <v>60</v>
@@ -9392,23 +9392,23 @@
       <c r="AI63" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AJ63" s="16" t="s">
-        <v>60</v>
+      <c r="AJ63" s="16" t="n">
+        <v>777674729</v>
       </c>
       <c r="AK63" s="16" t="n">
-        <v>777674729</v>
+        <v>716734495</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>716734495</v>
+        <v>764116883</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>764116883</v>
+        <v>861221453</v>
       </c>
       <c r="AN63" s="16" t="n">
-        <v>861221453</v>
-      </c>
-      <c r="AO63" s="16" t="n">
         <v>882409091</v>
+      </c>
+      <c r="AO63" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AP63" s="16" t="s">
         <v>60</v>
